--- a/other_material/metrics.xlsx
+++ b/other_material/metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e8ce84066fb867c/Dokumente/UNI/Trampolin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3844" documentId="11_92483E2D04E89AD36523F29B863E8C1851038389" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B82A521-15D6-4E6B-8909-FBE83439A96E}"/>
+  <xr:revisionPtr revIDLastSave="3855" documentId="11_92483E2D04E89AD36523F29B863E8C1851038389" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5AF8F26-EEE1-49C9-AECC-13994EC984FE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="neues Datenblatt" sheetId="2" r:id="rId1"/>
@@ -34,44 +34,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BFE8DADA-3DC1-4233-8D18-883C7C8A709A}</author>
     <author>tc={7DA13876-93A4-4CCC-9A7D-38C0787EF612}</author>
-    <author>tc={418CC9F3-45C9-4AD8-9C79-9FC573467C4E}</author>
-    <author>tc={3C885226-2AF2-4B0B-839B-327CA8388222}</author>
   </authors>
   <commentList>
-    <comment ref="D71" authorId="0" shapeId="0" xr:uid="{BFE8DADA-3DC1-4233-8D18-883C7C8A709A}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    neue daten
-</t>
-      </text>
-    </comment>
-    <comment ref="F79" authorId="1" shapeId="0" xr:uid="{7DA13876-93A4-4CCC-9A7D-38C0787EF612}">
+    <comment ref="F79" authorId="0" shapeId="0" xr:uid="{7DA13876-93A4-4CCC-9A7D-38C0787EF612}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     neue Daten</t>
-      </text>
-    </comment>
-    <comment ref="F135" authorId="2" shapeId="0" xr:uid="{418CC9F3-45C9-4AD8-9C79-9FC573467C4E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    neue daten</t>
-      </text>
-    </comment>
-    <comment ref="F159" authorId="3" shapeId="0" xr:uid="{3C885226-2AF2-4B0B-839B-327CA8388222}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    neue daten
-</t>
       </text>
     </comment>
   </commentList>
@@ -233,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="479">
   <si>
     <t>classification algorithm</t>
   </si>
@@ -778,22 +749,19 @@
     <t>percentage_mean_std_20</t>
   </si>
   <si>
-    <t>0.9686</t>
+    <t>0.9614</t>
   </si>
   <si>
     <t>0.9541</t>
   </si>
   <si>
-    <t>0.9631</t>
-  </si>
-  <si>
-    <t>0.9673</t>
+    <t>0.9582</t>
+  </si>
+  <si>
+    <t>0.9636</t>
   </si>
   <si>
     <t>0.9513</t>
-  </si>
-  <si>
-    <t>conv=3, kernel=3, pool=2, dense=2, act_func='tanh', loss='categorical_crossentropy', optim='Nadam', data=[3]</t>
   </si>
   <si>
     <t>act_func='relu', loss='categorical_crossentropy', optim='adam', epochs=60, data=[3]</t>
@@ -2605,7 +2573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3003,10 +2971,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3015,13 +2992,19 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3039,29 +3022,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3072,22 +3040,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3096,7 +3064,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3108,6 +3076,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3116,6 +3105,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3141,38 +3136,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3205,7 +3176,6 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Lisa Riedel" id="{A3C9C50C-79AB-4495-9D0B-77E05A170EFA}" userId="6e8ce84066fb867c" providerId="Windows Live"/>
-  <person displayName="Lukas Petzold" id="{815C5B58-A45F-49AC-9388-64033A38B675}" userId="8a38f814cf841944" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -3506,19 +3476,8 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D71" dT="2021-06-19T09:35:20.08" personId="{815C5B58-A45F-49AC-9388-64033A38B675}" id="{BFE8DADA-3DC1-4233-8D18-883C7C8A709A}">
-    <text xml:space="preserve">neue daten
-</text>
-  </threadedComment>
   <threadedComment ref="F79" dT="2021-06-19T09:05:22.43" personId="{A3C9C50C-79AB-4495-9D0B-77E05A170EFA}" id="{7DA13876-93A4-4CCC-9A7D-38C0787EF612}">
     <text>neue Daten</text>
-  </threadedComment>
-  <threadedComment ref="F135" dT="2021-06-19T09:02:11.91" personId="{815C5B58-A45F-49AC-9388-64033A38B675}" id="{418CC9F3-45C9-4AD8-9C79-9FC573467C4E}">
-    <text>neue daten</text>
-  </threadedComment>
-  <threadedComment ref="F159" dT="2021-06-19T09:15:09.40" personId="{815C5B58-A45F-49AC-9388-64033A38B675}" id="{3C885226-2AF2-4B0B-839B-327CA8388222}">
-    <text xml:space="preserve">neue daten
-</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3527,9 +3486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18030761-F4D0-48E7-A7CC-1040E7889F63}">
   <dimension ref="A1:P325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="N150" sqref="N150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D135" sqref="D135"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -3559,34 +3518,34 @@
       <c r="B1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="170" t="s">
+      <c r="D1" s="176"/>
+      <c r="E1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="170" t="s">
+      <c r="F1" s="176"/>
+      <c r="G1" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="170" t="s">
+      <c r="H1" s="176"/>
+      <c r="I1" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="171"/>
-      <c r="K1" s="170" t="s">
+      <c r="J1" s="176"/>
+      <c r="K1" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="171"/>
-      <c r="M1" s="170" t="s">
+      <c r="L1" s="176"/>
+      <c r="M1" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="171"/>
-      <c r="O1" s="170" t="s">
+      <c r="N1" s="176"/>
+      <c r="O1" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="171"/>
+      <c r="P1" s="176"/>
     </row>
     <row r="2" spans="1:16" ht="39" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -3595,40 +3554,40 @@
       <c r="B2" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="174" t="s">
+      <c r="D2" s="178"/>
+      <c r="E2" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="173"/>
-      <c r="G2" s="174" t="s">
+      <c r="F2" s="178"/>
+      <c r="G2" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="173"/>
-      <c r="I2" s="174" t="s">
+      <c r="H2" s="178"/>
+      <c r="I2" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174" t="s">
+      <c r="J2" s="178"/>
+      <c r="K2" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="173"/>
-      <c r="M2" s="174" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="173"/>
-      <c r="O2" s="174" t="s">
+      <c r="N2" s="178"/>
+      <c r="O2" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="173"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="171" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="116" t="s">
@@ -3675,7 +3634,7 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="166"/>
+      <c r="A4" s="169"/>
       <c r="B4" s="164"/>
       <c r="C4" s="117" t="s">
         <v>22</v>
@@ -3721,8 +3680,8 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="166"/>
-      <c r="B5" s="177" t="s">
+      <c r="A5" s="169"/>
+      <c r="B5" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="117" t="s">
@@ -3769,8 +3728,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="51">
-      <c r="A6" s="166"/>
-      <c r="B6" s="178"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="166"/>
       <c r="C6" s="128" t="s">
         <v>29</v>
       </c>
@@ -3815,8 +3774,8 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="166"/>
-      <c r="B7" s="163" t="s">
+      <c r="A7" s="169"/>
+      <c r="B7" s="172" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="129" t="s">
@@ -3863,7 +3822,7 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="166"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="164"/>
       <c r="C8" s="130" t="s">
         <v>22</v>
@@ -3909,8 +3868,8 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="166"/>
-      <c r="B9" s="177" t="s">
+      <c r="A9" s="169"/>
+      <c r="B9" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="130" t="s">
@@ -3957,8 +3916,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="38.25">
-      <c r="A10" s="166"/>
-      <c r="B10" s="178"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="128" t="s">
         <v>29</v>
       </c>
@@ -4001,7 +3960,7 @@
       <c r="P10" s="125"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="166"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="164" t="s">
         <v>50</v>
       </c>
@@ -4049,7 +4008,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="166"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="164"/>
       <c r="C12" s="117" t="s">
         <v>22</v>
@@ -4095,8 +4054,8 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="166"/>
-      <c r="B13" s="177" t="s">
+      <c r="A13" s="169"/>
+      <c r="B13" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="117" t="s">
@@ -4143,8 +4102,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="51">
-      <c r="A14" s="166"/>
-      <c r="B14" s="178"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="118" t="s">
         <v>29</v>
       </c>
@@ -4189,8 +4148,8 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="166"/>
-      <c r="B15" s="168" t="s">
+      <c r="A15" s="169"/>
+      <c r="B15" s="163" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="119" t="s">
@@ -4237,7 +4196,7 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="166"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="164"/>
       <c r="C16" s="117" t="s">
         <v>22</v>
@@ -4283,8 +4242,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="166"/>
-      <c r="B17" s="177" t="s">
+      <c r="A17" s="169"/>
+      <c r="B17" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="117" t="s">
@@ -4331,8 +4290,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="38.25">
-      <c r="A18" s="166"/>
-      <c r="B18" s="178"/>
+      <c r="A18" s="169"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="118" t="s">
         <v>29</v>
       </c>
@@ -4375,8 +4334,8 @@
       <c r="P18" s="125"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="166"/>
-      <c r="B19" s="168" t="s">
+      <c r="A19" s="169"/>
+      <c r="B19" s="163" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="119" t="s">
@@ -4423,7 +4382,7 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="166"/>
+      <c r="A20" s="169"/>
       <c r="B20" s="164"/>
       <c r="C20" s="117" t="s">
         <v>22</v>
@@ -4469,8 +4428,8 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="166"/>
-      <c r="B21" s="177" t="s">
+      <c r="A21" s="169"/>
+      <c r="B21" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="117" t="s">
@@ -4517,8 +4476,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="51">
-      <c r="A22" s="166"/>
-      <c r="B22" s="178"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="118" t="s">
         <v>29</v>
       </c>
@@ -4563,8 +4522,8 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="166"/>
-      <c r="B23" s="168" t="s">
+      <c r="A23" s="169"/>
+      <c r="B23" s="163" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="119" t="s">
@@ -4611,7 +4570,7 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="166"/>
+      <c r="A24" s="169"/>
       <c r="B24" s="164"/>
       <c r="C24" s="117" t="s">
         <v>22</v>
@@ -4657,8 +4616,8 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="166"/>
-      <c r="B25" s="177" t="s">
+      <c r="A25" s="169"/>
+      <c r="B25" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="117" t="s">
@@ -4705,8 +4664,8 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="38.25">
-      <c r="A26" s="166"/>
-      <c r="B26" s="178"/>
+      <c r="A26" s="169"/>
+      <c r="B26" s="166"/>
       <c r="C26" s="118" t="s">
         <v>29</v>
       </c>
@@ -4749,8 +4708,8 @@
       <c r="P26" s="125"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="166"/>
-      <c r="B27" s="168" t="s">
+      <c r="A27" s="169"/>
+      <c r="B27" s="163" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="119" t="s">
@@ -4783,7 +4742,7 @@
       <c r="P27" s="133"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="166"/>
+      <c r="A28" s="169"/>
       <c r="B28" s="164"/>
       <c r="C28" s="117" t="s">
         <v>22</v>
@@ -4815,7 +4774,7 @@
       <c r="P28" s="127"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="166"/>
+      <c r="A29" s="169"/>
       <c r="B29" s="164"/>
       <c r="C29" s="117" t="s">
         <v>26</v>
@@ -4847,8 +4806,8 @@
       <c r="P29" s="127"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="175"/>
-      <c r="B30" s="169"/>
+      <c r="A30" s="170"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="118" t="s">
         <v>29</v>
       </c>
@@ -4879,10 +4838,10 @@
       <c r="P30" s="125"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="171" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="116" t="s">
@@ -4929,7 +4888,7 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="166"/>
+      <c r="A32" s="169"/>
       <c r="B32" s="164"/>
       <c r="C32" s="117" t="s">
         <v>22</v>
@@ -4975,8 +4934,8 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="166"/>
-      <c r="B33" s="177" t="s">
+      <c r="A33" s="169"/>
+      <c r="B33" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="117" t="s">
@@ -5023,8 +4982,8 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="51">
-      <c r="A34" s="166"/>
-      <c r="B34" s="178"/>
+      <c r="A34" s="169"/>
+      <c r="B34" s="166"/>
       <c r="C34" s="118" t="s">
         <v>29</v>
       </c>
@@ -5069,8 +5028,8 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="166"/>
-      <c r="B35" s="163" t="s">
+      <c r="A35" s="169"/>
+      <c r="B35" s="172" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="119" t="s">
@@ -5117,7 +5076,7 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="166"/>
+      <c r="A36" s="169"/>
       <c r="B36" s="164"/>
       <c r="C36" s="117" t="s">
         <v>22</v>
@@ -5163,8 +5122,8 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="166"/>
-      <c r="B37" s="177" t="s">
+      <c r="A37" s="169"/>
+      <c r="B37" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="117" t="s">
@@ -5211,8 +5170,8 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="38.25">
-      <c r="A38" s="166"/>
-      <c r="B38" s="178"/>
+      <c r="A38" s="169"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="118" t="s">
         <v>29</v>
       </c>
@@ -5255,8 +5214,8 @@
       <c r="P38" s="125"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="166"/>
-      <c r="B39" s="168" t="s">
+      <c r="A39" s="169"/>
+      <c r="B39" s="163" t="s">
         <v>82</v>
       </c>
       <c r="C39" s="119" t="s">
@@ -5303,7 +5262,7 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="166"/>
+      <c r="A40" s="169"/>
       <c r="B40" s="164"/>
       <c r="C40" s="117" t="s">
         <v>22</v>
@@ -5349,8 +5308,8 @@
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="166"/>
-      <c r="B41" s="177" t="s">
+      <c r="A41" s="169"/>
+      <c r="B41" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="117" t="s">
@@ -5397,8 +5356,8 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="51">
-      <c r="A42" s="166"/>
-      <c r="B42" s="178"/>
+      <c r="A42" s="169"/>
+      <c r="B42" s="166"/>
       <c r="C42" s="118" t="s">
         <v>29</v>
       </c>
@@ -5443,8 +5402,8 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="166"/>
-      <c r="B43" s="163" t="s">
+      <c r="A43" s="169"/>
+      <c r="B43" s="172" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="119" t="s">
@@ -5491,7 +5450,7 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="166"/>
+      <c r="A44" s="169"/>
       <c r="B44" s="164"/>
       <c r="C44" s="117" t="s">
         <v>22</v>
@@ -5537,8 +5496,8 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="166"/>
-      <c r="B45" s="177" t="s">
+      <c r="A45" s="169"/>
+      <c r="B45" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="117" t="s">
@@ -5585,8 +5544,8 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="38.25">
-      <c r="A46" s="166"/>
-      <c r="B46" s="178"/>
+      <c r="A46" s="169"/>
+      <c r="B46" s="166"/>
       <c r="C46" s="118" t="s">
         <v>29</v>
       </c>
@@ -5629,8 +5588,8 @@
       <c r="P46" s="125"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="166"/>
-      <c r="B47" s="168" t="s">
+      <c r="A47" s="169"/>
+      <c r="B47" s="163" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="119" t="s">
@@ -5677,7 +5636,7 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="166"/>
+      <c r="A48" s="169"/>
       <c r="B48" s="164"/>
       <c r="C48" s="117" t="s">
         <v>22</v>
@@ -5723,8 +5682,8 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="166"/>
-      <c r="B49" s="177" t="s">
+      <c r="A49" s="169"/>
+      <c r="B49" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="117" t="s">
@@ -5771,8 +5730,8 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="51">
-      <c r="A50" s="166"/>
-      <c r="B50" s="178"/>
+      <c r="A50" s="169"/>
+      <c r="B50" s="166"/>
       <c r="C50" s="118" t="s">
         <v>29</v>
       </c>
@@ -5817,8 +5776,8 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="166"/>
-      <c r="B51" s="163" t="s">
+      <c r="A51" s="169"/>
+      <c r="B51" s="172" t="s">
         <v>89</v>
       </c>
       <c r="C51" s="119" t="s">
@@ -5865,7 +5824,7 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="166"/>
+      <c r="A52" s="169"/>
       <c r="B52" s="164"/>
       <c r="C52" s="117" t="s">
         <v>22</v>
@@ -5911,8 +5870,8 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="166"/>
-      <c r="B53" s="177" t="s">
+      <c r="A53" s="169"/>
+      <c r="B53" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="117" t="s">
@@ -5959,8 +5918,8 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="38.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="178"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="166"/>
       <c r="C54" s="118" t="s">
         <v>29</v>
       </c>
@@ -6003,8 +5962,8 @@
       <c r="P54" s="125"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="166"/>
-      <c r="B55" s="168" t="s">
+      <c r="A55" s="169"/>
+      <c r="B55" s="163" t="s">
         <v>72</v>
       </c>
       <c r="C55" s="119" t="s">
@@ -6037,7 +5996,7 @@
       <c r="P55" s="133"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="166"/>
+      <c r="A56" s="169"/>
       <c r="B56" s="164"/>
       <c r="C56" s="117" t="s">
         <v>22</v>
@@ -6069,7 +6028,7 @@
       <c r="P56" s="127"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="166"/>
+      <c r="A57" s="169"/>
       <c r="B57" s="164"/>
       <c r="C57" s="117" t="s">
         <v>26</v>
@@ -6101,8 +6060,8 @@
       <c r="P57" s="127"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="175"/>
-      <c r="B58" s="169"/>
+      <c r="A58" s="170"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="118" t="s">
         <v>29</v>
       </c>
@@ -6133,10 +6092,10 @@
       <c r="P58" s="125"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="165" t="s">
+      <c r="A59" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="176" t="s">
+      <c r="B59" s="171" t="s">
         <v>96</v>
       </c>
       <c r="C59" s="116" t="s">
@@ -6183,7 +6142,7 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="166"/>
+      <c r="A60" s="169"/>
       <c r="B60" s="164"/>
       <c r="C60" s="117" t="s">
         <v>22</v>
@@ -6229,8 +6188,8 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="166"/>
-      <c r="B61" s="177" t="s">
+      <c r="A61" s="169"/>
+      <c r="B61" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="117" t="s">
@@ -6277,8 +6236,8 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="51">
-      <c r="A62" s="166"/>
-      <c r="B62" s="178"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="118" t="s">
         <v>29</v>
       </c>
@@ -6323,8 +6282,8 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="166"/>
-      <c r="B63" s="163" t="s">
+      <c r="A63" s="169"/>
+      <c r="B63" s="172" t="s">
         <v>96</v>
       </c>
       <c r="C63" s="119" t="s">
@@ -6371,7 +6330,7 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="166"/>
+      <c r="A64" s="169"/>
       <c r="B64" s="164"/>
       <c r="C64" s="117" t="s">
         <v>22</v>
@@ -6417,8 +6376,8 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="166"/>
-      <c r="B65" s="177" t="s">
+      <c r="A65" s="169"/>
+      <c r="B65" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="117" t="s">
@@ -6465,8 +6424,8 @@
       </c>
     </row>
     <row r="66" spans="1:16" ht="38.25">
-      <c r="A66" s="166"/>
-      <c r="B66" s="178"/>
+      <c r="A66" s="169"/>
+      <c r="B66" s="166"/>
       <c r="C66" s="118" t="s">
         <v>29</v>
       </c>
@@ -6509,8 +6468,8 @@
       <c r="P66" s="125"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="166"/>
-      <c r="B67" s="168" t="s">
+      <c r="A67" s="169"/>
+      <c r="B67" s="163" t="s">
         <v>104</v>
       </c>
       <c r="C67" s="119" t="s">
@@ -6557,7 +6516,7 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="166"/>
+      <c r="A68" s="169"/>
       <c r="B68" s="164"/>
       <c r="C68" s="117" t="s">
         <v>22</v>
@@ -6603,8 +6562,8 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="166"/>
-      <c r="B69" s="177" t="s">
+      <c r="A69" s="169"/>
+      <c r="B69" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="117" t="s">
@@ -6651,8 +6610,8 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="51">
-      <c r="A70" s="166"/>
-      <c r="B70" s="178"/>
+      <c r="A70" s="169"/>
+      <c r="B70" s="166"/>
       <c r="C70" s="118" t="s">
         <v>29</v>
       </c>
@@ -6697,8 +6656,8 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="166"/>
-      <c r="B71" s="168" t="s">
+      <c r="A71" s="169"/>
+      <c r="B71" s="163" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="119" t="s">
@@ -6745,7 +6704,7 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="166"/>
+      <c r="A72" s="169"/>
       <c r="B72" s="164"/>
       <c r="C72" s="117" t="s">
         <v>22</v>
@@ -6791,8 +6750,8 @@
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="166"/>
-      <c r="B73" s="177" t="s">
+      <c r="A73" s="169"/>
+      <c r="B73" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="117" t="s">
@@ -6839,8 +6798,8 @@
       </c>
     </row>
     <row r="74" spans="1:16" ht="38.25">
-      <c r="A74" s="166"/>
-      <c r="B74" s="178"/>
+      <c r="A74" s="169"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="118" t="s">
         <v>29</v>
       </c>
@@ -6885,8 +6844,8 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="166"/>
-      <c r="B75" s="168" t="s">
+      <c r="A75" s="169"/>
+      <c r="B75" s="163" t="s">
         <v>113</v>
       </c>
       <c r="C75" s="119" t="s">
@@ -6933,7 +6892,7 @@
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="166"/>
+      <c r="A76" s="169"/>
       <c r="B76" s="164"/>
       <c r="C76" s="117" t="s">
         <v>22</v>
@@ -6979,8 +6938,8 @@
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="166"/>
-      <c r="B77" s="177" t="s">
+      <c r="A77" s="169"/>
+      <c r="B77" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="117" t="s">
@@ -7027,8 +6986,8 @@
       </c>
     </row>
     <row r="78" spans="1:16" ht="51">
-      <c r="A78" s="166"/>
-      <c r="B78" s="178"/>
+      <c r="A78" s="169"/>
+      <c r="B78" s="166"/>
       <c r="C78" s="118" t="s">
         <v>29</v>
       </c>
@@ -7073,8 +7032,8 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="166"/>
-      <c r="B79" s="168" t="s">
+      <c r="A79" s="169"/>
+      <c r="B79" s="163" t="s">
         <v>113</v>
       </c>
       <c r="C79" s="119" t="s">
@@ -7121,7 +7080,7 @@
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="166"/>
+      <c r="A80" s="169"/>
       <c r="B80" s="164"/>
       <c r="C80" s="117" t="s">
         <v>22</v>
@@ -7167,8 +7126,8 @@
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="166"/>
-      <c r="B81" s="177" t="s">
+      <c r="A81" s="169"/>
+      <c r="B81" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="117" t="s">
@@ -7215,8 +7174,8 @@
       </c>
     </row>
     <row r="82" spans="1:16" ht="38.25">
-      <c r="A82" s="166"/>
-      <c r="B82" s="178"/>
+      <c r="A82" s="169"/>
+      <c r="B82" s="166"/>
       <c r="C82" s="118" t="s">
         <v>29</v>
       </c>
@@ -7261,8 +7220,8 @@
       </c>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="166"/>
-      <c r="B83" s="168" t="s">
+      <c r="A83" s="169"/>
+      <c r="B83" s="163" t="s">
         <v>72</v>
       </c>
       <c r="C83" s="119" t="s">
@@ -7295,7 +7254,7 @@
       <c r="P83" s="133"/>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="166"/>
+      <c r="A84" s="169"/>
       <c r="B84" s="164"/>
       <c r="C84" s="117" t="s">
         <v>22</v>
@@ -7327,7 +7286,7 @@
       <c r="P84" s="127"/>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="166"/>
+      <c r="A85" s="169"/>
       <c r="B85" s="164"/>
       <c r="C85" s="117" t="s">
         <v>26</v>
@@ -7359,8 +7318,8 @@
       <c r="P85" s="127"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="175"/>
-      <c r="B86" s="169"/>
+      <c r="A86" s="170"/>
+      <c r="B86" s="167"/>
       <c r="C86" s="118" t="s">
         <v>29</v>
       </c>
@@ -7391,10 +7350,10 @@
       <c r="P86" s="125"/>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="165" t="s">
+      <c r="A87" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="176" t="s">
+      <c r="B87" s="171" t="s">
         <v>123</v>
       </c>
       <c r="C87" s="116" t="s">
@@ -7441,7 +7400,7 @@
       </c>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="166"/>
+      <c r="A88" s="169"/>
       <c r="B88" s="164"/>
       <c r="C88" s="117" t="s">
         <v>22</v>
@@ -7487,8 +7446,8 @@
       </c>
     </row>
     <row r="89" spans="1:16">
-      <c r="A89" s="166"/>
-      <c r="B89" s="177" t="s">
+      <c r="A89" s="169"/>
+      <c r="B89" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="117" t="s">
@@ -7535,8 +7494,8 @@
       </c>
     </row>
     <row r="90" spans="1:16" ht="51">
-      <c r="A90" s="166"/>
-      <c r="B90" s="178"/>
+      <c r="A90" s="169"/>
+      <c r="B90" s="166"/>
       <c r="C90" s="118" t="s">
         <v>29</v>
       </c>
@@ -7581,8 +7540,8 @@
       </c>
     </row>
     <row r="91" spans="1:16">
-      <c r="A91" s="166"/>
-      <c r="B91" s="163" t="s">
+      <c r="A91" s="169"/>
+      <c r="B91" s="172" t="s">
         <v>123</v>
       </c>
       <c r="C91" s="119" t="s">
@@ -7629,7 +7588,7 @@
       </c>
     </row>
     <row r="92" spans="1:16">
-      <c r="A92" s="166"/>
+      <c r="A92" s="169"/>
       <c r="B92" s="164"/>
       <c r="C92" s="117" t="s">
         <v>22</v>
@@ -7675,8 +7634,8 @@
       </c>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="166"/>
-      <c r="B93" s="177" t="s">
+      <c r="A93" s="169"/>
+      <c r="B93" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C93" s="117" t="s">
@@ -7723,8 +7682,8 @@
       </c>
     </row>
     <row r="94" spans="1:16" ht="38.25">
-      <c r="A94" s="166"/>
-      <c r="B94" s="178"/>
+      <c r="A94" s="169"/>
+      <c r="B94" s="166"/>
       <c r="C94" s="118" t="s">
         <v>29</v>
       </c>
@@ -7767,8 +7726,8 @@
       <c r="P94" s="125"/>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="166"/>
-      <c r="B95" s="168" t="s">
+      <c r="A95" s="169"/>
+      <c r="B95" s="163" t="s">
         <v>133</v>
       </c>
       <c r="C95" s="119" t="s">
@@ -7815,7 +7774,7 @@
       </c>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="166"/>
+      <c r="A96" s="169"/>
       <c r="B96" s="164"/>
       <c r="C96" s="117" t="s">
         <v>22</v>
@@ -7861,8 +7820,8 @@
       </c>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="166"/>
-      <c r="B97" s="177" t="s">
+      <c r="A97" s="169"/>
+      <c r="B97" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C97" s="117" t="s">
@@ -7909,8 +7868,8 @@
       </c>
     </row>
     <row r="98" spans="1:16" ht="51">
-      <c r="A98" s="166"/>
-      <c r="B98" s="178"/>
+      <c r="A98" s="169"/>
+      <c r="B98" s="166"/>
       <c r="C98" s="118" t="s">
         <v>29</v>
       </c>
@@ -7955,8 +7914,8 @@
       </c>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="166"/>
-      <c r="B99" s="168" t="s">
+      <c r="A99" s="169"/>
+      <c r="B99" s="163" t="s">
         <v>133</v>
       </c>
       <c r="C99" s="119" t="s">
@@ -8003,7 +7962,7 @@
       </c>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="166"/>
+      <c r="A100" s="169"/>
       <c r="B100" s="164"/>
       <c r="C100" s="117" t="s">
         <v>22</v>
@@ -8049,8 +8008,8 @@
       </c>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="166"/>
-      <c r="B101" s="177" t="s">
+      <c r="A101" s="169"/>
+      <c r="B101" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C101" s="117" t="s">
@@ -8097,8 +8056,8 @@
       </c>
     </row>
     <row r="102" spans="1:16" ht="38.25">
-      <c r="A102" s="166"/>
-      <c r="B102" s="178"/>
+      <c r="A102" s="169"/>
+      <c r="B102" s="166"/>
       <c r="C102" s="118" t="s">
         <v>29</v>
       </c>
@@ -8141,8 +8100,8 @@
       <c r="P102" s="125"/>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="166"/>
-      <c r="B103" s="168" t="s">
+      <c r="A103" s="169"/>
+      <c r="B103" s="163" t="s">
         <v>138</v>
       </c>
       <c r="C103" s="119" t="s">
@@ -8189,7 +8148,7 @@
       </c>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="166"/>
+      <c r="A104" s="169"/>
       <c r="B104" s="164"/>
       <c r="C104" s="117" t="s">
         <v>22</v>
@@ -8235,8 +8194,8 @@
       </c>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="166"/>
-      <c r="B105" s="177" t="s">
+      <c r="A105" s="169"/>
+      <c r="B105" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C105" s="117" t="s">
@@ -8283,8 +8242,8 @@
       </c>
     </row>
     <row r="106" spans="1:16" ht="51">
-      <c r="A106" s="166"/>
-      <c r="B106" s="178"/>
+      <c r="A106" s="169"/>
+      <c r="B106" s="166"/>
       <c r="C106" s="118" t="s">
         <v>29</v>
       </c>
@@ -8329,8 +8288,8 @@
       </c>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="166"/>
-      <c r="B107" s="168" t="s">
+      <c r="A107" s="169"/>
+      <c r="B107" s="163" t="s">
         <v>138</v>
       </c>
       <c r="C107" s="119" t="s">
@@ -8377,7 +8336,7 @@
       </c>
     </row>
     <row r="108" spans="1:16">
-      <c r="A108" s="166"/>
+      <c r="A108" s="169"/>
       <c r="B108" s="164"/>
       <c r="C108" s="117" t="s">
         <v>22</v>
@@ -8423,8 +8382,8 @@
       </c>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="166"/>
-      <c r="B109" s="177" t="s">
+      <c r="A109" s="169"/>
+      <c r="B109" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C109" s="117" t="s">
@@ -8471,8 +8430,8 @@
       </c>
     </row>
     <row r="110" spans="1:16" ht="38.25">
-      <c r="A110" s="166"/>
-      <c r="B110" s="178"/>
+      <c r="A110" s="169"/>
+      <c r="B110" s="166"/>
       <c r="C110" s="118" t="s">
         <v>29</v>
       </c>
@@ -8515,8 +8474,8 @@
       <c r="P110" s="157"/>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="166"/>
-      <c r="B111" s="168" t="s">
+      <c r="A111" s="169"/>
+      <c r="B111" s="163" t="s">
         <v>72</v>
       </c>
       <c r="C111" s="119" t="s">
@@ -8549,7 +8508,7 @@
       <c r="P111" s="133"/>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="166"/>
+      <c r="A112" s="169"/>
       <c r="B112" s="164"/>
       <c r="C112" s="117" t="s">
         <v>22</v>
@@ -8581,7 +8540,7 @@
       <c r="P112" s="127"/>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="166"/>
+      <c r="A113" s="169"/>
       <c r="B113" s="164"/>
       <c r="C113" s="117" t="s">
         <v>26</v>
@@ -8613,8 +8572,8 @@
       <c r="P113" s="127"/>
     </row>
     <row r="114" spans="1:16">
-      <c r="A114" s="175"/>
-      <c r="B114" s="169"/>
+      <c r="A114" s="170"/>
+      <c r="B114" s="167"/>
       <c r="C114" s="118" t="s">
         <v>29</v>
       </c>
@@ -8645,10 +8604,10 @@
       <c r="P114" s="125"/>
     </row>
     <row r="115" spans="1:16">
-      <c r="A115" s="165" t="s">
+      <c r="A115" s="168" t="s">
         <v>143</v>
       </c>
-      <c r="B115" s="176" t="s">
+      <c r="B115" s="171" t="s">
         <v>144</v>
       </c>
       <c r="C115" s="116" t="s">
@@ -8695,7 +8654,7 @@
       </c>
     </row>
     <row r="116" spans="1:16">
-      <c r="A116" s="166"/>
+      <c r="A116" s="169"/>
       <c r="B116" s="164"/>
       <c r="C116" s="117" t="s">
         <v>22</v>
@@ -8741,8 +8700,8 @@
       </c>
     </row>
     <row r="117" spans="1:16">
-      <c r="A117" s="166"/>
-      <c r="B117" s="177" t="s">
+      <c r="A117" s="169"/>
+      <c r="B117" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C117" s="117" t="s">
@@ -8789,8 +8748,8 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="51">
-      <c r="A118" s="166"/>
-      <c r="B118" s="178"/>
+      <c r="A118" s="169"/>
+      <c r="B118" s="166"/>
       <c r="C118" s="118" t="s">
         <v>29</v>
       </c>
@@ -8835,8 +8794,8 @@
       </c>
     </row>
     <row r="119" spans="1:16">
-      <c r="A119" s="166"/>
-      <c r="B119" s="163" t="s">
+      <c r="A119" s="169"/>
+      <c r="B119" s="172" t="s">
         <v>144</v>
       </c>
       <c r="C119" s="119" t="s">
@@ -8883,7 +8842,7 @@
       </c>
     </row>
     <row r="120" spans="1:16">
-      <c r="A120" s="166"/>
+      <c r="A120" s="169"/>
       <c r="B120" s="164"/>
       <c r="C120" s="117" t="s">
         <v>22</v>
@@ -8929,8 +8888,8 @@
       </c>
     </row>
     <row r="121" spans="1:16">
-      <c r="A121" s="166"/>
-      <c r="B121" s="177" t="s">
+      <c r="A121" s="169"/>
+      <c r="B121" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C121" s="117" t="s">
@@ -8977,8 +8936,8 @@
       </c>
     </row>
     <row r="122" spans="1:16" ht="38.25">
-      <c r="A122" s="166"/>
-      <c r="B122" s="178"/>
+      <c r="A122" s="169"/>
+      <c r="B122" s="166"/>
       <c r="C122" s="118" t="s">
         <v>29</v>
       </c>
@@ -9021,8 +8980,8 @@
       <c r="P122" s="125"/>
     </row>
     <row r="123" spans="1:16">
-      <c r="A123" s="166"/>
-      <c r="B123" s="168" t="s">
+      <c r="A123" s="169"/>
+      <c r="B123" s="163" t="s">
         <v>156</v>
       </c>
       <c r="C123" s="119" t="s">
@@ -9069,7 +9028,7 @@
       </c>
     </row>
     <row r="124" spans="1:16">
-      <c r="A124" s="166"/>
+      <c r="A124" s="169"/>
       <c r="B124" s="164"/>
       <c r="C124" s="117" t="s">
         <v>22</v>
@@ -9115,8 +9074,8 @@
       </c>
     </row>
     <row r="125" spans="1:16">
-      <c r="A125" s="166"/>
-      <c r="B125" s="177" t="s">
+      <c r="A125" s="169"/>
+      <c r="B125" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C125" s="117" t="s">
@@ -9163,8 +9122,8 @@
       </c>
     </row>
     <row r="126" spans="1:16" ht="51">
-      <c r="A126" s="166"/>
-      <c r="B126" s="178"/>
+      <c r="A126" s="169"/>
+      <c r="B126" s="166"/>
       <c r="C126" s="118" t="s">
         <v>29</v>
       </c>
@@ -9209,8 +9168,8 @@
       </c>
     </row>
     <row r="127" spans="1:16">
-      <c r="A127" s="166"/>
-      <c r="B127" s="168" t="s">
+      <c r="A127" s="169"/>
+      <c r="B127" s="173" t="s">
         <v>156</v>
       </c>
       <c r="C127" s="119" t="s">
@@ -9257,7 +9216,7 @@
       </c>
     </row>
     <row r="128" spans="1:16">
-      <c r="A128" s="166"/>
+      <c r="A128" s="169"/>
       <c r="B128" s="164"/>
       <c r="C128" s="117" t="s">
         <v>22</v>
@@ -9303,8 +9262,8 @@
       </c>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" s="166"/>
-      <c r="B129" s="177" t="s">
+      <c r="A129" s="169"/>
+      <c r="B129" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C129" s="117" t="s">
@@ -9351,8 +9310,8 @@
       </c>
     </row>
     <row r="130" spans="1:16" ht="38.25">
-      <c r="A130" s="166"/>
-      <c r="B130" s="178"/>
+      <c r="A130" s="169"/>
+      <c r="B130" s="166"/>
       <c r="C130" s="118" t="s">
         <v>29</v>
       </c>
@@ -9395,8 +9354,8 @@
       <c r="P130" s="125"/>
     </row>
     <row r="131" spans="1:16">
-      <c r="A131" s="166"/>
-      <c r="B131" s="168" t="s">
+      <c r="A131" s="169"/>
+      <c r="B131" s="163" t="s">
         <v>166</v>
       </c>
       <c r="C131" s="119" t="s">
@@ -9443,7 +9402,7 @@
       </c>
     </row>
     <row r="132" spans="1:16">
-      <c r="A132" s="166"/>
+      <c r="A132" s="169"/>
       <c r="B132" s="164"/>
       <c r="C132" s="117" t="s">
         <v>22</v>
@@ -9489,8 +9448,8 @@
       </c>
     </row>
     <row r="133" spans="1:16">
-      <c r="A133" s="166"/>
-      <c r="B133" s="177" t="s">
+      <c r="A133" s="169"/>
+      <c r="B133" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C133" s="117" t="s">
@@ -9537,19 +9496,19 @@
       </c>
     </row>
     <row r="134" spans="1:16" ht="51">
-      <c r="A134" s="166"/>
-      <c r="B134" s="178"/>
+      <c r="A134" s="169"/>
+      <c r="B134" s="166"/>
       <c r="C134" s="118" t="s">
         <v>29</v>
       </c>
       <c r="D134" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="E134" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="132" t="s">
         <v>172</v>
-      </c>
-      <c r="E134" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="F134" s="132" t="s">
-        <v>173</v>
       </c>
       <c r="G134" s="118" t="s">
         <v>29</v>
@@ -9583,8 +9542,8 @@
       </c>
     </row>
     <row r="135" spans="1:16">
-      <c r="A135" s="166"/>
-      <c r="B135" s="168" t="s">
+      <c r="A135" s="169"/>
+      <c r="B135" s="163" t="s">
         <v>166</v>
       </c>
       <c r="C135" s="119" t="s">
@@ -9597,7 +9556,7 @@
         <v>19</v>
       </c>
       <c r="F135" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G135" s="119" t="s">
         <v>19</v>
@@ -9631,7 +9590,7 @@
       </c>
     </row>
     <row r="136" spans="1:16">
-      <c r="A136" s="166"/>
+      <c r="A136" s="169"/>
       <c r="B136" s="164"/>
       <c r="C136" s="117" t="s">
         <v>22</v>
@@ -9643,7 +9602,7 @@
         <v>22</v>
       </c>
       <c r="F136" s="138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G136" s="117" t="s">
         <v>22</v>
@@ -9677,8 +9636,8 @@
       </c>
     </row>
     <row r="137" spans="1:16">
-      <c r="A137" s="166"/>
-      <c r="B137" s="177" t="s">
+      <c r="A137" s="169"/>
+      <c r="B137" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C137" s="117" t="s">
@@ -9691,7 +9650,7 @@
         <v>26</v>
       </c>
       <c r="F137" s="138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G137" s="117" t="s">
         <v>26</v>
@@ -9725,8 +9684,8 @@
       </c>
     </row>
     <row r="138" spans="1:16" ht="38.25">
-      <c r="A138" s="166"/>
-      <c r="B138" s="178"/>
+      <c r="A138" s="169"/>
+      <c r="B138" s="166"/>
       <c r="C138" s="118" t="s">
         <v>29</v>
       </c>
@@ -9769,8 +9728,8 @@
       <c r="P138" s="125"/>
     </row>
     <row r="139" spans="1:16">
-      <c r="A139" s="166"/>
-      <c r="B139" s="168" t="s">
+      <c r="A139" s="169"/>
+      <c r="B139" s="163" t="s">
         <v>72</v>
       </c>
       <c r="C139" s="119" t="s">
@@ -9805,7 +9764,7 @@
       <c r="P139" s="133"/>
     </row>
     <row r="140" spans="1:16">
-      <c r="A140" s="166"/>
+      <c r="A140" s="169"/>
       <c r="B140" s="164"/>
       <c r="C140" s="117" t="s">
         <v>22</v>
@@ -9839,7 +9798,7 @@
       <c r="P140" s="127"/>
     </row>
     <row r="141" spans="1:16">
-      <c r="A141" s="166"/>
+      <c r="A141" s="169"/>
       <c r="B141" s="164"/>
       <c r="C141" s="117" t="s">
         <v>26</v>
@@ -9873,8 +9832,8 @@
       <c r="P141" s="127"/>
     </row>
     <row r="142" spans="1:16" ht="63.75">
-      <c r="A142" s="175"/>
-      <c r="B142" s="169"/>
+      <c r="A142" s="170"/>
+      <c r="B142" s="167"/>
       <c r="C142" s="118" t="s">
         <v>29</v>
       </c>
@@ -9883,7 +9842,7 @@
         <v>29</v>
       </c>
       <c r="F142" s="125" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G142" s="118" t="s">
         <v>29</v>
@@ -9907,23 +9866,23 @@
       <c r="P142" s="125"/>
     </row>
     <row r="143" spans="1:16">
-      <c r="A143" s="165" t="s">
+      <c r="A143" s="168" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="B143" s="176" t="s">
+      <c r="C143" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="C143" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="126" t="s">
-        <v>180</v>
-      </c>
       <c r="E143" s="116" t="s">
         <v>19</v>
       </c>
       <c r="F143" s="126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G143" s="116" t="s">
         <v>19</v>
@@ -9957,19 +9916,19 @@
       </c>
     </row>
     <row r="144" spans="1:16">
-      <c r="A144" s="166"/>
+      <c r="A144" s="169"/>
       <c r="B144" s="164"/>
       <c r="C144" s="117" t="s">
         <v>22</v>
       </c>
       <c r="D144" s="127" t="s">
+        <v>180</v>
+      </c>
+      <c r="E144" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="127" t="s">
         <v>181</v>
-      </c>
-      <c r="E144" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="F144" s="127" t="s">
-        <v>182</v>
       </c>
       <c r="G144" s="117" t="s">
         <v>22</v>
@@ -10003,21 +9962,21 @@
       </c>
     </row>
     <row r="145" spans="1:16">
-      <c r="A145" s="166"/>
-      <c r="B145" s="177" t="s">
+      <c r="A145" s="169"/>
+      <c r="B145" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C145" s="117" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E145" s="117" t="s">
         <v>26</v>
       </c>
       <c r="F145" s="127" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G145" s="117" t="s">
         <v>26</v>
@@ -10051,8 +10010,8 @@
       </c>
     </row>
     <row r="146" spans="1:16" ht="51">
-      <c r="A146" s="166"/>
-      <c r="B146" s="178"/>
+      <c r="A146" s="169"/>
+      <c r="B146" s="166"/>
       <c r="C146" s="118" t="s">
         <v>29</v>
       </c>
@@ -10063,7 +10022,7 @@
         <v>29</v>
       </c>
       <c r="F146" s="132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G146" s="118" t="s">
         <v>29</v>
@@ -10097,9 +10056,9 @@
       </c>
     </row>
     <row r="147" spans="1:16">
-      <c r="A147" s="166"/>
-      <c r="B147" s="163" t="s">
-        <v>179</v>
+      <c r="A147" s="169"/>
+      <c r="B147" s="172" t="s">
+        <v>178</v>
       </c>
       <c r="C147" s="119" t="s">
         <v>19</v>
@@ -10111,7 +10070,7 @@
         <v>19</v>
       </c>
       <c r="F147" s="131" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G147" s="119" t="s">
         <v>19</v>
@@ -10145,19 +10104,19 @@
       </c>
     </row>
     <row r="148" spans="1:16">
-      <c r="A148" s="166"/>
+      <c r="A148" s="169"/>
       <c r="B148" s="164"/>
       <c r="C148" s="117" t="s">
         <v>22</v>
       </c>
       <c r="D148" s="131" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" s="131" t="s">
         <v>186</v>
-      </c>
-      <c r="E148" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="F148" s="131" t="s">
-        <v>187</v>
       </c>
       <c r="G148" s="117" t="s">
         <v>22</v>
@@ -10191,21 +10150,21 @@
       </c>
     </row>
     <row r="149" spans="1:16">
-      <c r="A149" s="166"/>
-      <c r="B149" s="177" t="s">
+      <c r="A149" s="169"/>
+      <c r="B149" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C149" s="117" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E149" s="117" t="s">
         <v>26</v>
       </c>
       <c r="F149" s="131" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G149" s="117" t="s">
         <v>26</v>
@@ -10239,8 +10198,8 @@
       </c>
     </row>
     <row r="150" spans="1:16" ht="38.25">
-      <c r="A150" s="166"/>
-      <c r="B150" s="178"/>
+      <c r="A150" s="169"/>
+      <c r="B150" s="166"/>
       <c r="C150" s="118" t="s">
         <v>29</v>
       </c>
@@ -10283,9 +10242,9 @@
       <c r="P150" s="125"/>
     </row>
     <row r="151" spans="1:16">
-      <c r="A151" s="166"/>
-      <c r="B151" s="168" t="s">
-        <v>189</v>
+      <c r="A151" s="169"/>
+      <c r="B151" s="163" t="s">
+        <v>188</v>
       </c>
       <c r="C151" s="119" t="s">
         <v>19</v>
@@ -10331,13 +10290,13 @@
       </c>
     </row>
     <row r="152" spans="1:16">
-      <c r="A152" s="166"/>
+      <c r="A152" s="169"/>
       <c r="B152" s="164"/>
       <c r="C152" s="117" t="s">
         <v>22</v>
       </c>
       <c r="D152" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E152" s="117" t="s">
         <v>22</v>
@@ -10377,15 +10336,15 @@
       </c>
     </row>
     <row r="153" spans="1:16">
-      <c r="A153" s="166"/>
-      <c r="B153" s="177" t="s">
+      <c r="A153" s="169"/>
+      <c r="B153" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C153" s="117" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E153" s="117" t="s">
         <v>26</v>
@@ -10425,8 +10384,8 @@
       </c>
     </row>
     <row r="154" spans="1:16" ht="51">
-      <c r="A154" s="166"/>
-      <c r="B154" s="178"/>
+      <c r="A154" s="169"/>
+      <c r="B154" s="166"/>
       <c r="C154" s="118" t="s">
         <v>29</v>
       </c>
@@ -10471,9 +10430,9 @@
       </c>
     </row>
     <row r="155" spans="1:16">
-      <c r="A155" s="166"/>
-      <c r="B155" s="168" t="s">
-        <v>189</v>
+      <c r="A155" s="169"/>
+      <c r="B155" s="163" t="s">
+        <v>188</v>
       </c>
       <c r="C155" s="119" t="s">
         <v>19</v>
@@ -10485,7 +10444,7 @@
         <v>19</v>
       </c>
       <c r="F155" s="131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G155" s="119" t="s">
         <v>19</v>
@@ -10519,7 +10478,7 @@
       </c>
     </row>
     <row r="156" spans="1:16">
-      <c r="A156" s="166"/>
+      <c r="A156" s="169"/>
       <c r="B156" s="164"/>
       <c r="C156" s="117" t="s">
         <v>22</v>
@@ -10531,7 +10490,7 @@
         <v>22</v>
       </c>
       <c r="F156" s="131" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G156" s="117" t="s">
         <v>22</v>
@@ -10565,21 +10524,21 @@
       </c>
     </row>
     <row r="157" spans="1:16">
-      <c r="A157" s="166"/>
-      <c r="B157" s="177" t="s">
+      <c r="A157" s="169"/>
+      <c r="B157" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C157" s="117" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="131" t="s">
+        <v>192</v>
+      </c>
+      <c r="E157" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F157" s="131" t="s">
         <v>193</v>
-      </c>
-      <c r="E157" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" s="131" t="s">
-        <v>194</v>
       </c>
       <c r="G157" s="117" t="s">
         <v>26</v>
@@ -10613,8 +10572,8 @@
       </c>
     </row>
     <row r="158" spans="1:16" ht="38.25">
-      <c r="A158" s="166"/>
-      <c r="B158" s="178"/>
+      <c r="A158" s="169"/>
+      <c r="B158" s="166"/>
       <c r="C158" s="118" t="s">
         <v>29</v>
       </c>
@@ -10657,9 +10616,9 @@
       <c r="P158" s="125"/>
     </row>
     <row r="159" spans="1:16">
-      <c r="A159" s="166"/>
-      <c r="B159" s="168" t="s">
-        <v>195</v>
+      <c r="A159" s="169"/>
+      <c r="B159" s="163" t="s">
+        <v>194</v>
       </c>
       <c r="C159" s="119" t="s">
         <v>19</v>
@@ -10705,7 +10664,7 @@
       </c>
     </row>
     <row r="160" spans="1:16">
-      <c r="A160" s="166"/>
+      <c r="A160" s="169"/>
       <c r="B160" s="164"/>
       <c r="C160" s="117" t="s">
         <v>22</v>
@@ -10717,7 +10676,7 @@
         <v>22</v>
       </c>
       <c r="F160" s="140" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G160" s="117" t="s">
         <v>22</v>
@@ -10751,8 +10710,8 @@
       </c>
     </row>
     <row r="161" spans="1:16">
-      <c r="A161" s="166"/>
-      <c r="B161" s="177" t="s">
+      <c r="A161" s="169"/>
+      <c r="B161" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C161" s="117" t="s">
@@ -10799,8 +10758,8 @@
       </c>
     </row>
     <row r="162" spans="1:16" ht="51">
-      <c r="A162" s="166"/>
-      <c r="B162" s="178"/>
+      <c r="A162" s="169"/>
+      <c r="B162" s="166"/>
       <c r="C162" s="118" t="s">
         <v>29</v>
       </c>
@@ -10811,7 +10770,7 @@
         <v>29</v>
       </c>
       <c r="F162" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G162" s="118" t="s">
         <v>29</v>
@@ -10845,9 +10804,9 @@
       </c>
     </row>
     <row r="163" spans="1:16">
-      <c r="A163" s="166"/>
-      <c r="B163" s="168" t="s">
-        <v>195</v>
+      <c r="A163" s="169"/>
+      <c r="B163" s="163" t="s">
+        <v>194</v>
       </c>
       <c r="C163" s="119" t="s">
         <v>19</v>
@@ -10893,13 +10852,13 @@
       </c>
     </row>
     <row r="164" spans="1:16">
-      <c r="A164" s="166"/>
+      <c r="A164" s="169"/>
       <c r="B164" s="164"/>
       <c r="C164" s="117" t="s">
         <v>22</v>
       </c>
       <c r="D164" s="131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E164" s="117" t="s">
         <v>22</v>
@@ -10939,15 +10898,15 @@
       </c>
     </row>
     <row r="165" spans="1:16">
-      <c r="A165" s="166"/>
-      <c r="B165" s="177" t="s">
+      <c r="A165" s="169"/>
+      <c r="B165" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C165" s="117" t="s">
         <v>26</v>
       </c>
       <c r="D165" s="131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E165" s="117" t="s">
         <v>26</v>
@@ -10987,8 +10946,8 @@
       </c>
     </row>
     <row r="166" spans="1:16" ht="38.25">
-      <c r="A166" s="166"/>
-      <c r="B166" s="178"/>
+      <c r="A166" s="169"/>
+      <c r="B166" s="166"/>
       <c r="C166" s="118" t="s">
         <v>29</v>
       </c>
@@ -11031,8 +10990,8 @@
       <c r="P166" s="161"/>
     </row>
     <row r="167" spans="1:16">
-      <c r="A167" s="166"/>
-      <c r="B167" s="168" t="s">
+      <c r="A167" s="169"/>
+      <c r="B167" s="163" t="s">
         <v>72</v>
       </c>
       <c r="C167" s="119" t="s">
@@ -11065,7 +11024,7 @@
       <c r="P167" s="133"/>
     </row>
     <row r="168" spans="1:16">
-      <c r="A168" s="166"/>
+      <c r="A168" s="169"/>
       <c r="B168" s="164"/>
       <c r="C168" s="117" t="s">
         <v>22</v>
@@ -11097,7 +11056,7 @@
       <c r="P168" s="127"/>
     </row>
     <row r="169" spans="1:16">
-      <c r="A169" s="166"/>
+      <c r="A169" s="169"/>
       <c r="B169" s="164"/>
       <c r="C169" s="117" t="s">
         <v>26</v>
@@ -11129,8 +11088,8 @@
       <c r="P169" s="127"/>
     </row>
     <row r="170" spans="1:16">
-      <c r="A170" s="175"/>
-      <c r="B170" s="169"/>
+      <c r="A170" s="170"/>
+      <c r="B170" s="167"/>
       <c r="C170" s="118" t="s">
         <v>29</v>
       </c>
@@ -11161,11 +11120,11 @@
       <c r="P170" s="125"/>
     </row>
     <row r="171" spans="1:16">
-      <c r="A171" s="165" t="s">
+      <c r="A171" s="168" t="s">
+        <v>199</v>
+      </c>
+      <c r="B171" s="171" t="s">
         <v>200</v>
-      </c>
-      <c r="B171" s="176" t="s">
-        <v>201</v>
       </c>
       <c r="C171" s="116" t="s">
         <v>19</v>
@@ -11175,7 +11134,7 @@
         <v>19</v>
       </c>
       <c r="F171" s="131" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G171" s="116" t="s">
         <v>19</v>
@@ -11209,7 +11168,7 @@
       </c>
     </row>
     <row r="172" spans="1:16">
-      <c r="A172" s="166"/>
+      <c r="A172" s="169"/>
       <c r="B172" s="164"/>
       <c r="C172" s="117" t="s">
         <v>22</v>
@@ -11219,7 +11178,7 @@
         <v>22</v>
       </c>
       <c r="F172" s="131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G172" s="117" t="s">
         <v>22</v>
@@ -11253,8 +11212,8 @@
       </c>
     </row>
     <row r="173" spans="1:16">
-      <c r="A173" s="166"/>
-      <c r="B173" s="177" t="s">
+      <c r="A173" s="169"/>
+      <c r="B173" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C173" s="117" t="s">
@@ -11265,7 +11224,7 @@
         <v>26</v>
       </c>
       <c r="F173" s="131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G173" s="117" t="s">
         <v>26</v>
@@ -11299,8 +11258,8 @@
       </c>
     </row>
     <row r="174" spans="1:16" ht="51">
-      <c r="A174" s="166"/>
-      <c r="B174" s="178"/>
+      <c r="A174" s="169"/>
+      <c r="B174" s="166"/>
       <c r="C174" s="118" t="s">
         <v>29</v>
       </c>
@@ -11309,7 +11268,7 @@
         <v>29</v>
       </c>
       <c r="F174" s="132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G174" s="118" t="s">
         <v>29</v>
@@ -11343,9 +11302,9 @@
       </c>
     </row>
     <row r="175" spans="1:16">
-      <c r="A175" s="166"/>
-      <c r="B175" s="163" t="s">
-        <v>201</v>
+      <c r="A175" s="169"/>
+      <c r="B175" s="172" t="s">
+        <v>200</v>
       </c>
       <c r="C175" s="119" t="s">
         <v>19</v>
@@ -11355,7 +11314,7 @@
         <v>19</v>
       </c>
       <c r="F175" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G175" s="119" t="s">
         <v>19</v>
@@ -11389,7 +11348,7 @@
       </c>
     </row>
     <row r="176" spans="1:16">
-      <c r="A176" s="166"/>
+      <c r="A176" s="169"/>
       <c r="B176" s="164"/>
       <c r="C176" s="117" t="s">
         <v>22</v>
@@ -11399,7 +11358,7 @@
         <v>22</v>
       </c>
       <c r="F176" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G176" s="117" t="s">
         <v>22</v>
@@ -11433,8 +11392,8 @@
       </c>
     </row>
     <row r="177" spans="1:16">
-      <c r="A177" s="166"/>
-      <c r="B177" s="177" t="s">
+      <c r="A177" s="169"/>
+      <c r="B177" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C177" s="117" t="s">
@@ -11445,7 +11404,7 @@
         <v>26</v>
       </c>
       <c r="F177" s="127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G177" s="117" t="s">
         <v>26</v>
@@ -11479,8 +11438,8 @@
       </c>
     </row>
     <row r="178" spans="1:16" ht="38.25">
-      <c r="A178" s="166"/>
-      <c r="B178" s="178"/>
+      <c r="A178" s="169"/>
+      <c r="B178" s="166"/>
       <c r="C178" s="118" t="s">
         <v>29</v>
       </c>
@@ -11489,7 +11448,7 @@
         <v>29</v>
       </c>
       <c r="F178" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G178" s="118" t="s">
         <v>29</v>
@@ -11521,9 +11480,9 @@
       <c r="P178" s="125"/>
     </row>
     <row r="179" spans="1:16">
-      <c r="A179" s="166"/>
-      <c r="B179" s="168" t="s">
-        <v>209</v>
+      <c r="A179" s="169"/>
+      <c r="B179" s="163" t="s">
+        <v>208</v>
       </c>
       <c r="C179" s="119" t="s">
         <v>19</v>
@@ -11533,7 +11492,7 @@
         <v>19</v>
       </c>
       <c r="F179" s="133" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G179" s="119" t="s">
         <v>19</v>
@@ -11567,7 +11526,7 @@
       </c>
     </row>
     <row r="180" spans="1:16">
-      <c r="A180" s="166"/>
+      <c r="A180" s="169"/>
       <c r="B180" s="164"/>
       <c r="C180" s="117" t="s">
         <v>22</v>
@@ -11577,7 +11536,7 @@
         <v>22</v>
       </c>
       <c r="F180" s="127" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G180" s="117" t="s">
         <v>22</v>
@@ -11611,8 +11570,8 @@
       </c>
     </row>
     <row r="181" spans="1:16">
-      <c r="A181" s="166"/>
-      <c r="B181" s="177" t="s">
+      <c r="A181" s="169"/>
+      <c r="B181" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C181" s="117" t="s">
@@ -11623,7 +11582,7 @@
         <v>26</v>
       </c>
       <c r="F181" s="127" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G181" s="117" t="s">
         <v>26</v>
@@ -11657,8 +11616,8 @@
       </c>
     </row>
     <row r="182" spans="1:16" ht="51">
-      <c r="A182" s="166"/>
-      <c r="B182" s="178"/>
+      <c r="A182" s="169"/>
+      <c r="B182" s="166"/>
       <c r="C182" s="118" t="s">
         <v>29</v>
       </c>
@@ -11667,7 +11626,7 @@
         <v>29</v>
       </c>
       <c r="F182" s="132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G182" s="118" t="s">
         <v>29</v>
@@ -11701,9 +11660,9 @@
       </c>
     </row>
     <row r="183" spans="1:16">
-      <c r="A183" s="166"/>
-      <c r="B183" s="168" t="s">
-        <v>209</v>
+      <c r="A183" s="169"/>
+      <c r="B183" s="163" t="s">
+        <v>208</v>
       </c>
       <c r="C183" s="119" t="s">
         <v>19</v>
@@ -11713,7 +11672,7 @@
         <v>19</v>
       </c>
       <c r="F183" s="127" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G183" s="119" t="s">
         <v>19</v>
@@ -11747,7 +11706,7 @@
       </c>
     </row>
     <row r="184" spans="1:16">
-      <c r="A184" s="166"/>
+      <c r="A184" s="169"/>
       <c r="B184" s="164"/>
       <c r="C184" s="117" t="s">
         <v>22</v>
@@ -11757,7 +11716,7 @@
         <v>22</v>
       </c>
       <c r="F184" s="151" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G184" s="117" t="s">
         <v>22</v>
@@ -11791,8 +11750,8 @@
       </c>
     </row>
     <row r="185" spans="1:16">
-      <c r="A185" s="166"/>
-      <c r="B185" s="177" t="s">
+      <c r="A185" s="169"/>
+      <c r="B185" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C185" s="117" t="s">
@@ -11803,7 +11762,7 @@
         <v>26</v>
       </c>
       <c r="F185" s="127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G185" s="117" t="s">
         <v>26</v>
@@ -11837,8 +11796,8 @@
       </c>
     </row>
     <row r="186" spans="1:16" ht="38.25">
-      <c r="A186" s="166"/>
-      <c r="B186" s="178"/>
+      <c r="A186" s="169"/>
+      <c r="B186" s="166"/>
       <c r="C186" s="118" t="s">
         <v>29</v>
       </c>
@@ -11847,7 +11806,7 @@
         <v>29</v>
       </c>
       <c r="F186" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G186" s="118" t="s">
         <v>29</v>
@@ -11879,9 +11838,9 @@
       <c r="P186" s="125"/>
     </row>
     <row r="187" spans="1:16">
-      <c r="A187" s="166"/>
-      <c r="B187" s="168" t="s">
-        <v>217</v>
+      <c r="A187" s="169"/>
+      <c r="B187" s="163" t="s">
+        <v>216</v>
       </c>
       <c r="C187" s="119" t="s">
         <v>19</v>
@@ -11891,7 +11850,7 @@
         <v>19</v>
       </c>
       <c r="F187" s="133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G187" s="119" t="s">
         <v>19</v>
@@ -11925,7 +11884,7 @@
       </c>
     </row>
     <row r="188" spans="1:16">
-      <c r="A188" s="166"/>
+      <c r="A188" s="169"/>
       <c r="B188" s="164"/>
       <c r="C188" s="117" t="s">
         <v>22</v>
@@ -11935,7 +11894,7 @@
         <v>22</v>
       </c>
       <c r="F188" s="127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G188" s="117" t="s">
         <v>22</v>
@@ -11969,8 +11928,8 @@
       </c>
     </row>
     <row r="189" spans="1:16">
-      <c r="A189" s="166"/>
-      <c r="B189" s="177" t="s">
+      <c r="A189" s="169"/>
+      <c r="B189" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C189" s="117" t="s">
@@ -11981,7 +11940,7 @@
         <v>26</v>
       </c>
       <c r="F189" s="127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G189" s="117" t="s">
         <v>26</v>
@@ -12015,8 +11974,8 @@
       </c>
     </row>
     <row r="190" spans="1:16" ht="51">
-      <c r="A190" s="166"/>
-      <c r="B190" s="178"/>
+      <c r="A190" s="169"/>
+      <c r="B190" s="166"/>
       <c r="C190" s="118" t="s">
         <v>29</v>
       </c>
@@ -12025,7 +11984,7 @@
         <v>29</v>
       </c>
       <c r="F190" s="132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G190" s="118" t="s">
         <v>29</v>
@@ -12059,9 +12018,9 @@
       </c>
     </row>
     <row r="191" spans="1:16">
-      <c r="A191" s="166"/>
-      <c r="B191" s="168" t="s">
-        <v>217</v>
+      <c r="A191" s="169"/>
+      <c r="B191" s="163" t="s">
+        <v>216</v>
       </c>
       <c r="C191" s="119" t="s">
         <v>19</v>
@@ -12071,7 +12030,7 @@
         <v>19</v>
       </c>
       <c r="F191" s="133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G191" s="119" t="s">
         <v>19</v>
@@ -12105,7 +12064,7 @@
       </c>
     </row>
     <row r="192" spans="1:16">
-      <c r="A192" s="166"/>
+      <c r="A192" s="169"/>
       <c r="B192" s="164"/>
       <c r="C192" s="117" t="s">
         <v>22</v>
@@ -12115,7 +12074,7 @@
         <v>22</v>
       </c>
       <c r="F192" s="127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G192" s="117" t="s">
         <v>22</v>
@@ -12149,8 +12108,8 @@
       </c>
     </row>
     <row r="193" spans="1:16">
-      <c r="A193" s="166"/>
-      <c r="B193" s="177" t="s">
+      <c r="A193" s="169"/>
+      <c r="B193" s="165" t="s">
         <v>41</v>
       </c>
       <c r="C193" s="117" t="s">
@@ -12161,7 +12120,7 @@
         <v>26</v>
       </c>
       <c r="F193" s="127" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G193" s="117" t="s">
         <v>26</v>
@@ -12195,8 +12154,8 @@
       </c>
     </row>
     <row r="194" spans="1:16" ht="38.25">
-      <c r="A194" s="166"/>
-      <c r="B194" s="178"/>
+      <c r="A194" s="169"/>
+      <c r="B194" s="166"/>
       <c r="C194" s="118" t="s">
         <v>29</v>
       </c>
@@ -12205,7 +12164,7 @@
         <v>29</v>
       </c>
       <c r="F194" s="136" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G194" s="118" t="s">
         <v>29</v>
@@ -12237,8 +12196,8 @@
       <c r="P194" s="125"/>
     </row>
     <row r="195" spans="1:16">
-      <c r="A195" s="166"/>
-      <c r="B195" s="168" t="s">
+      <c r="A195" s="169"/>
+      <c r="B195" s="163" t="s">
         <v>72</v>
       </c>
       <c r="C195" s="119" t="s">
@@ -12271,7 +12230,7 @@
       <c r="P195" s="133"/>
     </row>
     <row r="196" spans="1:16">
-      <c r="A196" s="166"/>
+      <c r="A196" s="169"/>
       <c r="B196" s="164"/>
       <c r="C196" s="117" t="s">
         <v>22</v>
@@ -12303,7 +12262,7 @@
       <c r="P196" s="127"/>
     </row>
     <row r="197" spans="1:16">
-      <c r="A197" s="166"/>
+      <c r="A197" s="169"/>
       <c r="B197" s="164"/>
       <c r="C197" s="117" t="s">
         <v>26</v>
@@ -12335,8 +12294,8 @@
       <c r="P197" s="127"/>
     </row>
     <row r="198" spans="1:16">
-      <c r="A198" s="175"/>
-      <c r="B198" s="169"/>
+      <c r="A198" s="170"/>
+      <c r="B198" s="167"/>
       <c r="C198" s="120" t="s">
         <v>29</v>
       </c>
@@ -12367,9 +12326,9 @@
       <c r="P198" s="134"/>
     </row>
     <row r="199" spans="1:16">
-      <c r="A199" s="165"/>
-      <c r="B199" s="168" t="s">
-        <v>224</v>
+      <c r="A199" s="168"/>
+      <c r="B199" s="163" t="s">
+        <v>223</v>
       </c>
       <c r="C199" s="119" t="s">
         <v>19</v>
@@ -12415,13 +12374,13 @@
       </c>
     </row>
     <row r="200" spans="1:16">
-      <c r="A200" s="166"/>
+      <c r="A200" s="169"/>
       <c r="B200" s="164"/>
       <c r="C200" s="117" t="s">
         <v>22</v>
       </c>
       <c r="D200" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E200" s="117" t="s">
         <v>22</v>
@@ -12461,13 +12420,13 @@
       </c>
     </row>
     <row r="201" spans="1:16">
-      <c r="A201" s="166"/>
+      <c r="A201" s="169"/>
       <c r="B201" s="164"/>
       <c r="C201" s="117" t="s">
         <v>26</v>
       </c>
       <c r="D201" s="127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E201" s="117" t="s">
         <v>26</v>
@@ -12507,19 +12466,19 @@
       </c>
     </row>
     <row r="202" spans="1:16" ht="63.75">
-      <c r="A202" s="167"/>
-      <c r="B202" s="169"/>
+      <c r="A202" s="174"/>
+      <c r="B202" s="167"/>
       <c r="C202" s="120" t="s">
         <v>29</v>
       </c>
       <c r="D202" s="134" t="s">
+        <v>224</v>
+      </c>
+      <c r="E202" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F202" s="134" t="s">
         <v>225</v>
-      </c>
-      <c r="E202" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="F202" s="134" t="s">
-        <v>226</v>
       </c>
       <c r="G202" s="120" t="s">
         <v>29</v>
@@ -12531,7 +12490,7 @@
         <v>29</v>
       </c>
       <c r="J202" s="134" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K202" s="120" t="s">
         <v>29</v>
@@ -12543,7 +12502,7 @@
         <v>29</v>
       </c>
       <c r="N202" s="159" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O202" s="120" t="s">
         <v>29</v>
@@ -12552,7 +12511,7 @@
     </row>
     <row r="203" spans="1:16" ht="38.25">
       <c r="F203" s="127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -12585,10 +12544,10 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="143" t="s">
+        <v>229</v>
+      </c>
+      <c r="B212" s="142" t="s">
         <v>230</v>
-      </c>
-      <c r="B212" s="142" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -12596,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -12604,7 +12563,7 @@
         <v>1</v>
       </c>
       <c r="B214" s="115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -12612,7 +12571,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="115" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -12620,7 +12579,7 @@
         <v>3</v>
       </c>
       <c r="B216" s="115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -12628,7 +12587,7 @@
         <v>4</v>
       </c>
       <c r="B217" s="115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -13065,72 +13024,30 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="A171:A198"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="A143:A170"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="A59:A86"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A31:A58"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A30"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="A199:A202"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A115:A142"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="A87:A114"/>
+    <mergeCell ref="B83:B86"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B123:B124"/>
     <mergeCell ref="B125:B126"/>
@@ -13155,30 +13072,72 @@
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="B79:B80"/>
     <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A115:A142"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="A87:A114"/>
-    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A30"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A59:A86"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A31:A58"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="A171:A198"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="A143:A170"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B153:B154"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -13191,7 +13150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H86" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13224,34 +13183,34 @@
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="170" t="s">
+      <c r="D1" s="176"/>
+      <c r="E1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="171"/>
-      <c r="G1" s="170" t="s">
+      <c r="F1" s="176"/>
+      <c r="G1" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="170" t="s">
+      <c r="H1" s="176"/>
+      <c r="I1" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="171"/>
-      <c r="K1" s="170" t="s">
+      <c r="J1" s="176"/>
+      <c r="K1" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="171"/>
-      <c r="M1" s="170" t="s">
+      <c r="L1" s="176"/>
+      <c r="M1" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="171"/>
-      <c r="O1" s="170" t="s">
+      <c r="N1" s="176"/>
+      <c r="O1" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="171"/>
+      <c r="P1" s="176"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -13260,53 +13219,53 @@
       <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="174" t="s">
+      <c r="D2" s="178"/>
+      <c r="E2" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="173"/>
-      <c r="G2" s="174" t="s">
+      <c r="F2" s="178"/>
+      <c r="G2" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="173"/>
-      <c r="I2" s="174" t="s">
+      <c r="H2" s="178"/>
+      <c r="I2" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="173"/>
-      <c r="K2" s="174" t="s">
+      <c r="J2" s="178"/>
+      <c r="K2" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="173"/>
-      <c r="M2" s="174" t="s">
+      <c r="L2" s="178"/>
+      <c r="M2" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="173"/>
-      <c r="O2" s="174" t="s">
+      <c r="N2" s="178"/>
+      <c r="O2" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="173"/>
+      <c r="P2" s="178"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1">
       <c r="A3" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="191" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>19</v>
@@ -13324,13 +13283,13 @@
         <v>19</v>
       </c>
       <c r="L3" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>19</v>
@@ -13341,18 +13300,18 @@
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1">
       <c r="A4" s="184"/>
-      <c r="B4" s="182"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>22</v>
@@ -13370,13 +13329,13 @@
         <v>22</v>
       </c>
       <c r="L4" s="96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>22</v>
@@ -13387,18 +13346,18 @@
     </row>
     <row r="5" spans="1:16" s="5" customFormat="1">
       <c r="A5" s="184"/>
-      <c r="B5" s="182"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>26</v>
@@ -13416,13 +13375,13 @@
         <v>26</v>
       </c>
       <c r="L5" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>26</v>
@@ -13433,18 +13392,18 @@
     </row>
     <row r="6" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A6" s="184"/>
-      <c r="B6" s="186"/>
+      <c r="B6" s="218"/>
       <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>248</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>249</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>29</v>
@@ -13456,19 +13415,19 @@
         <v>29</v>
       </c>
       <c r="J6" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="98" t="s">
+      <c r="M6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>29</v>
@@ -13477,20 +13436,20 @@
     </row>
     <row r="7" spans="1:16" s="5" customFormat="1">
       <c r="A7" s="184"/>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="199" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
@@ -13508,13 +13467,13 @@
         <v>19</v>
       </c>
       <c r="L7" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>19</v>
@@ -13525,18 +13484,18 @@
     </row>
     <row r="8" spans="1:16" s="5" customFormat="1">
       <c r="A8" s="184"/>
-      <c r="B8" s="187"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>22</v>
@@ -13554,13 +13513,13 @@
         <v>22</v>
       </c>
       <c r="L8" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>22</v>
@@ -13571,18 +13530,18 @@
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1">
       <c r="A9" s="184"/>
-      <c r="B9" s="187"/>
+      <c r="B9" s="199"/>
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>26</v>
@@ -13600,13 +13559,13 @@
         <v>26</v>
       </c>
       <c r="L9" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>26</v>
@@ -13617,18 +13576,18 @@
     </row>
     <row r="10" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A10" s="184"/>
-      <c r="B10" s="188"/>
+      <c r="B10" s="202"/>
       <c r="C10" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>29</v>
@@ -13640,19 +13599,19 @@
         <v>29</v>
       </c>
       <c r="J10" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="98" t="s">
+      <c r="M10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>29</v>
@@ -13661,20 +13620,20 @@
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1">
       <c r="A11" s="184"/>
-      <c r="B11" s="189" t="s">
+      <c r="B11" s="200" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>19</v>
@@ -13692,13 +13651,13 @@
         <v>19</v>
       </c>
       <c r="L11" s="99" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>19</v>
@@ -13709,18 +13668,18 @@
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1">
       <c r="A12" s="184"/>
-      <c r="B12" s="182"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>22</v>
@@ -13738,13 +13697,13 @@
         <v>22</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>22</v>
@@ -13755,18 +13714,18 @@
     </row>
     <row r="13" spans="1:16" s="5" customFormat="1">
       <c r="A13" s="184"/>
-      <c r="B13" s="182"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>26</v>
@@ -13784,13 +13743,13 @@
         <v>26</v>
       </c>
       <c r="L13" s="97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>26</v>
@@ -13801,18 +13760,18 @@
     </row>
     <row r="14" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A14" s="184"/>
-      <c r="B14" s="190"/>
+      <c r="B14" s="219"/>
       <c r="C14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>248</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>249</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>29</v>
@@ -13824,19 +13783,19 @@
         <v>29</v>
       </c>
       <c r="J14" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="98" t="s">
+      <c r="M14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O14" s="14" t="s">
         <v>29</v>
@@ -13845,7 +13804,7 @@
     </row>
     <row r="15" spans="1:16" s="5" customFormat="1">
       <c r="A15" s="184"/>
-      <c r="B15" s="179" t="s">
+      <c r="B15" s="208" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -13879,7 +13838,7 @@
     </row>
     <row r="16" spans="1:16" s="5" customFormat="1">
       <c r="A16" s="184"/>
-      <c r="B16" s="179"/>
+      <c r="B16" s="208"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
@@ -13911,7 +13870,7 @@
     </row>
     <row r="17" spans="1:16" s="5" customFormat="1">
       <c r="A17" s="184"/>
-      <c r="B17" s="179"/>
+      <c r="B17" s="208"/>
       <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
@@ -13943,7 +13902,7 @@
     </row>
     <row r="18" spans="1:16" s="7" customFormat="1">
       <c r="A18" s="185"/>
-      <c r="B18" s="180"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
@@ -13977,20 +13936,20 @@
       <c r="A19" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="181" t="s">
+      <c r="B19" s="191" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>19</v>
@@ -14008,13 +13967,13 @@
         <v>19</v>
       </c>
       <c r="L19" s="100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>19</v>
@@ -14025,18 +13984,18 @@
     </row>
     <row r="20" spans="1:16" s="5" customFormat="1">
       <c r="A20" s="184"/>
-      <c r="B20" s="182"/>
+      <c r="B20" s="187"/>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>22</v>
@@ -14054,13 +14013,13 @@
         <v>22</v>
       </c>
       <c r="L20" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>22</v>
@@ -14071,18 +14030,18 @@
     </row>
     <row r="21" spans="1:16" s="5" customFormat="1">
       <c r="A21" s="184"/>
-      <c r="B21" s="182"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>26</v>
@@ -14100,13 +14059,13 @@
         <v>26</v>
       </c>
       <c r="L21" s="96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>26</v>
@@ -14117,18 +14076,18 @@
     </row>
     <row r="22" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A22" s="184"/>
-      <c r="B22" s="182"/>
+      <c r="B22" s="187"/>
       <c r="C22" s="22" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>248</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>249</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>29</v>
@@ -14140,19 +14099,19 @@
         <v>29</v>
       </c>
       <c r="J22" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="98" t="s">
+      <c r="M22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>29</v>
@@ -14161,20 +14120,20 @@
     </row>
     <row r="23" spans="1:16" s="5" customFormat="1">
       <c r="A23" s="184"/>
-      <c r="B23" s="168" t="s">
+      <c r="B23" s="163" t="s">
         <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>19</v>
@@ -14192,13 +14151,13 @@
         <v>19</v>
       </c>
       <c r="L23" s="96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>19</v>
@@ -14214,13 +14173,13 @@
         <v>22</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>22</v>
@@ -14238,13 +14197,13 @@
         <v>22</v>
       </c>
       <c r="L24" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>22</v>
@@ -14260,13 +14219,13 @@
         <v>26</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>26</v>
@@ -14284,13 +14243,13 @@
         <v>26</v>
       </c>
       <c r="L25" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>26</v>
@@ -14301,18 +14260,18 @@
     </row>
     <row r="26" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A26" s="184"/>
-      <c r="B26" s="191"/>
+      <c r="B26" s="204"/>
       <c r="C26" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>29</v>
@@ -14324,19 +14283,19 @@
         <v>29</v>
       </c>
       <c r="J26" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="98" t="s">
+      <c r="M26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N26" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O26" s="14" t="s">
         <v>29</v>
@@ -14345,20 +14304,20 @@
     </row>
     <row r="27" spans="1:16" s="5" customFormat="1">
       <c r="A27" s="184"/>
-      <c r="B27" s="187" t="s">
+      <c r="B27" s="199" t="s">
         <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>19</v>
@@ -14376,13 +14335,13 @@
         <v>19</v>
       </c>
       <c r="L27" s="99" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>19</v>
@@ -14393,7 +14352,7 @@
     </row>
     <row r="28" spans="1:16" s="5" customFormat="1">
       <c r="A28" s="184"/>
-      <c r="B28" s="187"/>
+      <c r="B28" s="199"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
@@ -14404,7 +14363,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>22</v>
@@ -14422,13 +14381,13 @@
         <v>22</v>
       </c>
       <c r="L28" s="96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>22</v>
@@ -14439,7 +14398,7 @@
     </row>
     <row r="29" spans="1:16" s="5" customFormat="1">
       <c r="A29" s="184"/>
-      <c r="B29" s="187"/>
+      <c r="B29" s="199"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
@@ -14450,7 +14409,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>26</v>
@@ -14468,13 +14427,13 @@
         <v>26</v>
       </c>
       <c r="L29" s="96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>26</v>
@@ -14485,18 +14444,18 @@
     </row>
     <row r="30" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A30" s="184"/>
-      <c r="B30" s="188"/>
+      <c r="B30" s="202"/>
       <c r="C30" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>248</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>249</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>29</v>
@@ -14508,19 +14467,19 @@
         <v>29</v>
       </c>
       <c r="J30" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="98" t="s">
+      <c r="M30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N30" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O30" s="14" t="s">
         <v>29</v>
@@ -14529,7 +14488,7 @@
     </row>
     <row r="31" spans="1:16" s="5" customFormat="1">
       <c r="A31" s="184"/>
-      <c r="B31" s="179" t="s">
+      <c r="B31" s="208" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -14563,7 +14522,7 @@
     </row>
     <row r="32" spans="1:16" s="5" customFormat="1">
       <c r="A32" s="184"/>
-      <c r="B32" s="179"/>
+      <c r="B32" s="208"/>
       <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
@@ -14595,7 +14554,7 @@
     </row>
     <row r="33" spans="1:16" s="5" customFormat="1">
       <c r="A33" s="184"/>
-      <c r="B33" s="179"/>
+      <c r="B33" s="208"/>
       <c r="C33" s="3" t="s">
         <v>26</v>
       </c>
@@ -14627,7 +14586,7 @@
     </row>
     <row r="34" spans="1:16" s="7" customFormat="1">
       <c r="A34" s="185"/>
-      <c r="B34" s="180"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="10" t="s">
         <v>29</v>
       </c>
@@ -14661,20 +14620,20 @@
       <c r="A35" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="181" t="s">
+      <c r="B35" s="191" t="s">
         <v>96</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>299</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>300</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>19</v>
@@ -14692,13 +14651,13 @@
         <v>19</v>
       </c>
       <c r="L35" s="100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>19</v>
@@ -14709,7 +14668,7 @@
     </row>
     <row r="36" spans="1:16" s="5" customFormat="1">
       <c r="A36" s="184"/>
-      <c r="B36" s="182"/>
+      <c r="B36" s="187"/>
       <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
@@ -14720,7 +14679,7 @@
         <v>22</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>22</v>
@@ -14738,13 +14697,13 @@
         <v>22</v>
       </c>
       <c r="L36" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>22</v>
@@ -14755,7 +14714,7 @@
     </row>
     <row r="37" spans="1:16" s="5" customFormat="1">
       <c r="A37" s="184"/>
-      <c r="B37" s="182"/>
+      <c r="B37" s="187"/>
       <c r="C37" s="3" t="s">
         <v>26</v>
       </c>
@@ -14766,7 +14725,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>26</v>
@@ -14784,13 +14743,13 @@
         <v>26</v>
       </c>
       <c r="L37" s="96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>26</v>
@@ -14801,18 +14760,18 @@
     </row>
     <row r="38" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A38" s="184"/>
-      <c r="B38" s="182"/>
+      <c r="B38" s="187"/>
       <c r="C38" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>29</v>
@@ -14824,19 +14783,19 @@
         <v>29</v>
       </c>
       <c r="J38" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="98" t="s">
+      <c r="M38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>29</v>
@@ -14852,13 +14811,13 @@
         <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>19</v>
@@ -14876,13 +14835,13 @@
         <v>19</v>
       </c>
       <c r="L39" s="96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>19</v>
@@ -14898,13 +14857,13 @@
         <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>22</v>
@@ -14922,13 +14881,13 @@
         <v>22</v>
       </c>
       <c r="L40" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>22</v>
@@ -14950,7 +14909,7 @@
         <v>26</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>26</v>
@@ -14968,13 +14927,13 @@
         <v>26</v>
       </c>
       <c r="L41" s="96" t="s">
+        <v>312</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>26</v>
@@ -14985,18 +14944,18 @@
     </row>
     <row r="42" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A42" s="184"/>
-      <c r="B42" s="194"/>
+      <c r="B42" s="220"/>
       <c r="C42" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>29</v>
@@ -15008,19 +14967,19 @@
         <v>29</v>
       </c>
       <c r="J42" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K42" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" s="98" t="s">
+      <c r="M42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N42" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O42" s="14" t="s">
         <v>29</v>
@@ -15029,20 +14988,20 @@
     </row>
     <row r="43" spans="1:16" s="5" customFormat="1">
       <c r="A43" s="184"/>
-      <c r="B43" s="187" t="s">
+      <c r="B43" s="199" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>19</v>
@@ -15060,13 +15019,13 @@
         <v>19</v>
       </c>
       <c r="L43" s="99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>19</v>
@@ -15077,18 +15036,18 @@
     </row>
     <row r="44" spans="1:16" s="5" customFormat="1">
       <c r="A44" s="184"/>
-      <c r="B44" s="187"/>
+      <c r="B44" s="199"/>
       <c r="C44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>22</v>
@@ -15106,13 +15065,13 @@
         <v>22</v>
       </c>
       <c r="L44" s="96" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>22</v>
@@ -15123,18 +15082,18 @@
     </row>
     <row r="45" spans="1:16" s="5" customFormat="1">
       <c r="A45" s="184"/>
-      <c r="B45" s="187"/>
+      <c r="B45" s="199"/>
       <c r="C45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>26</v>
@@ -15152,13 +15111,13 @@
         <v>26</v>
       </c>
       <c r="L45" s="96" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>26</v>
@@ -15169,18 +15128,18 @@
     </row>
     <row r="46" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A46" s="184"/>
-      <c r="B46" s="188"/>
+      <c r="B46" s="202"/>
       <c r="C46" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>29</v>
@@ -15192,19 +15151,19 @@
         <v>29</v>
       </c>
       <c r="J46" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K46" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="98" t="s">
+      <c r="M46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N46" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O46" s="14" t="s">
         <v>29</v>
@@ -15213,7 +15172,7 @@
     </row>
     <row r="47" spans="1:16" s="5" customFormat="1">
       <c r="A47" s="184"/>
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="208" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -15247,7 +15206,7 @@
     </row>
     <row r="48" spans="1:16" s="5" customFormat="1">
       <c r="A48" s="184"/>
-      <c r="B48" s="179"/>
+      <c r="B48" s="208"/>
       <c r="C48" s="3" t="s">
         <v>22</v>
       </c>
@@ -15279,7 +15238,7 @@
     </row>
     <row r="49" spans="1:16" s="5" customFormat="1">
       <c r="A49" s="184"/>
-      <c r="B49" s="179"/>
+      <c r="B49" s="208"/>
       <c r="C49" s="3" t="s">
         <v>26</v>
       </c>
@@ -15311,7 +15270,7 @@
     </row>
     <row r="50" spans="1:16" s="7" customFormat="1">
       <c r="A50" s="185"/>
-      <c r="B50" s="180"/>
+      <c r="B50" s="209"/>
       <c r="C50" s="10" t="s">
         <v>29</v>
       </c>
@@ -15345,20 +15304,20 @@
       <c r="A51" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="181" t="s">
+      <c r="B51" s="191" t="s">
         <v>123</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>19</v>
@@ -15382,7 +15341,7 @@
         <v>19</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O51" s="9" t="s">
         <v>19</v>
@@ -15393,18 +15352,18 @@
     </row>
     <row r="52" spans="1:16" s="5" customFormat="1">
       <c r="A52" s="184"/>
-      <c r="B52" s="182"/>
+      <c r="B52" s="187"/>
       <c r="C52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>22</v>
@@ -15428,7 +15387,7 @@
         <v>22</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>22</v>
@@ -15439,18 +15398,18 @@
     </row>
     <row r="53" spans="1:16" s="5" customFormat="1">
       <c r="A53" s="184"/>
-      <c r="B53" s="182"/>
+      <c r="B53" s="187"/>
       <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>26</v>
@@ -15474,7 +15433,7 @@
         <v>26</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>26</v>
@@ -15485,18 +15444,18 @@
     </row>
     <row r="54" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A54" s="184"/>
-      <c r="B54" s="182"/>
+      <c r="B54" s="187"/>
       <c r="C54" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>29</v>
@@ -15508,19 +15467,19 @@
         <v>29</v>
       </c>
       <c r="J54" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="103" t="s">
         <v>250</v>
       </c>
-      <c r="K54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L54" s="103" t="s">
+      <c r="M54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N54" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>29</v>
@@ -15529,20 +15488,20 @@
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1">
       <c r="A55" s="184"/>
-      <c r="B55" s="198" t="s">
+      <c r="B55" s="205" t="s">
         <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>19</v>
@@ -15560,13 +15519,13 @@
         <v>19</v>
       </c>
       <c r="L55" s="96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>19</v>
@@ -15577,18 +15536,18 @@
     </row>
     <row r="56" spans="1:16" s="5" customFormat="1">
       <c r="A56" s="184"/>
-      <c r="B56" s="199"/>
+      <c r="B56" s="206"/>
       <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>22</v>
@@ -15606,13 +15565,13 @@
         <v>22</v>
       </c>
       <c r="L56" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N56" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>22</v>
@@ -15623,7 +15582,7 @@
     </row>
     <row r="57" spans="1:16" s="5" customFormat="1">
       <c r="A57" s="184"/>
-      <c r="B57" s="199"/>
+      <c r="B57" s="206"/>
       <c r="C57" s="3" t="s">
         <v>26</v>
       </c>
@@ -15634,7 +15593,7 @@
         <v>26</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>26</v>
@@ -15652,13 +15611,13 @@
         <v>26</v>
       </c>
       <c r="L57" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>26</v>
@@ -15669,18 +15628,18 @@
     </row>
     <row r="58" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A58" s="184"/>
-      <c r="B58" s="200"/>
+      <c r="B58" s="207"/>
       <c r="C58" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>29</v>
@@ -15692,19 +15651,19 @@
         <v>29</v>
       </c>
       <c r="J58" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L58" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K58" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L58" s="98" t="s">
+      <c r="M58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M58" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N58" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O58" s="14" t="s">
         <v>29</v>
@@ -15713,14 +15672,14 @@
     </row>
     <row r="59" spans="1:16" s="5" customFormat="1">
       <c r="A59" s="184"/>
-      <c r="B59" s="198" t="s">
+      <c r="B59" s="205" t="s">
         <v>138</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>19</v>
@@ -15744,13 +15703,13 @@
         <v>19</v>
       </c>
       <c r="L59" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>19</v>
@@ -15761,18 +15720,18 @@
     </row>
     <row r="60" spans="1:16" s="5" customFormat="1">
       <c r="A60" s="184"/>
-      <c r="B60" s="199"/>
+      <c r="B60" s="206"/>
       <c r="C60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>22</v>
@@ -15790,13 +15749,13 @@
         <v>22</v>
       </c>
       <c r="L60" s="96" t="s">
+        <v>341</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>22</v>
@@ -15807,18 +15766,18 @@
     </row>
     <row r="61" spans="1:16" s="5" customFormat="1">
       <c r="A61" s="184"/>
-      <c r="B61" s="199"/>
+      <c r="B61" s="206"/>
       <c r="C61" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>26</v>
@@ -15836,13 +15795,13 @@
         <v>26</v>
       </c>
       <c r="L61" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>26</v>
@@ -15853,18 +15812,18 @@
     </row>
     <row r="62" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A62" s="184"/>
-      <c r="B62" s="200"/>
+      <c r="B62" s="207"/>
       <c r="C62" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>29</v>
@@ -15876,19 +15835,19 @@
         <v>29</v>
       </c>
       <c r="J62" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K62" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="98" t="s">
+      <c r="M62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M62" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O62" s="14" t="s">
         <v>29</v>
@@ -15897,7 +15856,7 @@
     </row>
     <row r="63" spans="1:16" s="5" customFormat="1">
       <c r="A63" s="184"/>
-      <c r="B63" s="179" t="s">
+      <c r="B63" s="208" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -15931,7 +15890,7 @@
     </row>
     <row r="64" spans="1:16" s="5" customFormat="1">
       <c r="A64" s="184"/>
-      <c r="B64" s="179"/>
+      <c r="B64" s="208"/>
       <c r="C64" s="3" t="s">
         <v>22</v>
       </c>
@@ -15963,7 +15922,7 @@
     </row>
     <row r="65" spans="1:16" s="5" customFormat="1">
       <c r="A65" s="184"/>
-      <c r="B65" s="179"/>
+      <c r="B65" s="208"/>
       <c r="C65" s="3" t="s">
         <v>26</v>
       </c>
@@ -15995,7 +15954,7 @@
     </row>
     <row r="66" spans="1:16" s="7" customFormat="1">
       <c r="A66" s="185"/>
-      <c r="B66" s="180"/>
+      <c r="B66" s="209"/>
       <c r="C66" s="10" t="s">
         <v>29</v>
       </c>
@@ -16029,7 +15988,7 @@
       <c r="A67" s="183" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="181" t="s">
+      <c r="B67" s="191" t="s">
         <v>144</v>
       </c>
       <c r="C67" s="9" t="s">
@@ -16042,7 +16001,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>19</v>
@@ -16060,13 +16019,13 @@
         <v>19</v>
       </c>
       <c r="L67" s="100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O67" s="9" t="s">
         <v>19</v>
@@ -16077,18 +16036,18 @@
     </row>
     <row r="68" spans="1:16" s="5" customFormat="1">
       <c r="A68" s="184"/>
-      <c r="B68" s="182"/>
+      <c r="B68" s="187"/>
       <c r="C68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>22</v>
@@ -16106,13 +16065,13 @@
         <v>22</v>
       </c>
       <c r="L68" s="96" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>22</v>
@@ -16123,7 +16082,7 @@
     </row>
     <row r="69" spans="1:16" s="5" customFormat="1">
       <c r="A69" s="184"/>
-      <c r="B69" s="182"/>
+      <c r="B69" s="187"/>
       <c r="C69" s="3" t="s">
         <v>26</v>
       </c>
@@ -16134,7 +16093,7 @@
         <v>26</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>26</v>
@@ -16152,13 +16111,13 @@
         <v>26</v>
       </c>
       <c r="L69" s="96" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M69" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>26</v>
@@ -16169,18 +16128,18 @@
     </row>
     <row r="70" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A70" s="184"/>
-      <c r="B70" s="182"/>
+      <c r="B70" s="187"/>
       <c r="C70" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D70" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="26" t="s">
         <v>248</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>249</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>29</v>
@@ -16192,19 +16151,19 @@
         <v>29</v>
       </c>
       <c r="J70" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L70" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K70" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L70" s="98" t="s">
+      <c r="M70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>29</v>
@@ -16213,20 +16172,20 @@
     </row>
     <row r="71" spans="1:16" s="5" customFormat="1">
       <c r="A71" s="184"/>
-      <c r="B71" s="198" t="s">
+      <c r="B71" s="205" t="s">
         <v>156</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>19</v>
@@ -16244,13 +16203,13 @@
         <v>19</v>
       </c>
       <c r="L71" s="96" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>19</v>
@@ -16261,18 +16220,18 @@
     </row>
     <row r="72" spans="1:16" s="5" customFormat="1">
       <c r="A72" s="184"/>
-      <c r="B72" s="199"/>
+      <c r="B72" s="206"/>
       <c r="C72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>22</v>
@@ -16290,13 +16249,13 @@
         <v>22</v>
       </c>
       <c r="L72" s="96" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>22</v>
@@ -16307,18 +16266,18 @@
     </row>
     <row r="73" spans="1:16" s="5" customFormat="1">
       <c r="A73" s="184"/>
-      <c r="B73" s="199"/>
+      <c r="B73" s="206"/>
       <c r="C73" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>26</v>
@@ -16336,13 +16295,13 @@
         <v>26</v>
       </c>
       <c r="L73" s="96" t="s">
+        <v>358</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>26</v>
@@ -16353,18 +16312,18 @@
     </row>
     <row r="74" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A74" s="184"/>
-      <c r="B74" s="200"/>
+      <c r="B74" s="207"/>
       <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>29</v>
@@ -16376,19 +16335,19 @@
         <v>29</v>
       </c>
       <c r="J74" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K74" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L74" s="98" t="s">
+      <c r="M74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M74" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N74" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O74" s="14" t="s">
         <v>29</v>
@@ -16397,20 +16356,20 @@
     </row>
     <row r="75" spans="1:16" s="5" customFormat="1">
       <c r="A75" s="184"/>
-      <c r="B75" s="168" t="s">
+      <c r="B75" s="163" t="s">
         <v>166</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>19</v>
@@ -16428,13 +16387,13 @@
         <v>19</v>
       </c>
       <c r="L75" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>19</v>
@@ -16456,7 +16415,7 @@
         <v>22</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>22</v>
@@ -16474,13 +16433,13 @@
         <v>22</v>
       </c>
       <c r="L76" s="96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>22</v>
@@ -16496,13 +16455,13 @@
         <v>26</v>
       </c>
       <c r="D77" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="29" t="s">
         <v>365</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>366</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>26</v>
@@ -16520,13 +16479,13 @@
         <v>26</v>
       </c>
       <c r="L77" s="96" t="s">
+        <v>366</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>26</v>
@@ -16537,18 +16496,18 @@
     </row>
     <row r="78" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A78" s="184"/>
-      <c r="B78" s="191"/>
+      <c r="B78" s="204"/>
       <c r="C78" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D78" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="30" t="s">
         <v>248</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>249</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>29</v>
@@ -16560,19 +16519,19 @@
         <v>29</v>
       </c>
       <c r="J78" s="83" t="s">
+        <v>249</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K78" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L78" s="98" t="s">
+      <c r="M78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M78" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N78" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O78" s="14" t="s">
         <v>29</v>
@@ -16711,22 +16670,22 @@
     </row>
     <row r="83" spans="1:16" s="4" customFormat="1">
       <c r="A83" s="183" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="B83" s="176" t="s">
-        <v>179</v>
-      </c>
       <c r="C83" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>19</v>
@@ -16744,13 +16703,13 @@
         <v>19</v>
       </c>
       <c r="L83" s="100" t="s">
+        <v>369</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" s="111" t="s">
         <v>370</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N83" s="111" t="s">
-        <v>371</v>
       </c>
       <c r="O83" s="9" t="s">
         <v>19</v>
@@ -16766,13 +16725,13 @@
         <v>22</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>22</v>
@@ -16790,13 +16749,13 @@
         <v>22</v>
       </c>
       <c r="L84" s="96" t="s">
+        <v>373</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N84" s="29" t="s">
         <v>374</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N84" s="29" t="s">
-        <v>375</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>22</v>
@@ -16812,13 +16771,13 @@
         <v>26</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>26</v>
@@ -16836,13 +16795,13 @@
         <v>26</v>
       </c>
       <c r="L85" s="96" t="s">
+        <v>377</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="29" t="s">
         <v>378</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" s="29" t="s">
-        <v>379</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>26</v>
@@ -16853,18 +16812,18 @@
     </row>
     <row r="86" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A86" s="184"/>
-      <c r="B86" s="191"/>
+      <c r="B86" s="204"/>
       <c r="C86" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D86" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>248</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>249</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>29</v>
@@ -16876,19 +16835,19 @@
         <v>29</v>
       </c>
       <c r="J86" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K86" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L86" s="98" t="s">
+      <c r="M86" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N86" s="110" t="s">
         <v>251</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N86" s="110" t="s">
-        <v>252</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>29</v>
@@ -16898,7 +16857,7 @@
     <row r="87" spans="1:16" s="5" customFormat="1">
       <c r="A87" s="184"/>
       <c r="B87" s="164" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
@@ -16910,7 +16869,7 @@
         <v>19</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>19</v>
@@ -16928,13 +16887,13 @@
         <v>19</v>
       </c>
       <c r="L87" s="96" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>19</v>
@@ -16950,13 +16909,13 @@
         <v>22</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>22</v>
@@ -16974,13 +16933,13 @@
         <v>22</v>
       </c>
       <c r="L88" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N88" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>22</v>
@@ -16996,13 +16955,13 @@
         <v>26</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>26</v>
@@ -17020,13 +16979,13 @@
         <v>26</v>
       </c>
       <c r="L89" s="96" t="s">
+        <v>386</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>26</v>
@@ -17037,18 +16996,18 @@
     </row>
     <row r="90" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A90" s="184"/>
-      <c r="B90" s="191"/>
+      <c r="B90" s="204"/>
       <c r="C90" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D90" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="24" t="s">
         <v>248</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>249</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>29</v>
@@ -17060,19 +17019,19 @@
         <v>29</v>
       </c>
       <c r="J90" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K90" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L90" s="98" t="s">
+      <c r="M90" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N90" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M90" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N90" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O90" s="14" t="s">
         <v>29</v>
@@ -17081,20 +17040,20 @@
     </row>
     <row r="91" spans="1:16" s="5" customFormat="1">
       <c r="A91" s="184"/>
-      <c r="B91" s="182" t="s">
-        <v>195</v>
+      <c r="B91" s="187" t="s">
+        <v>194</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>19</v>
@@ -17112,13 +17071,13 @@
         <v>19</v>
       </c>
       <c r="L91" s="99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N91" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>19</v>
@@ -17129,18 +17088,18 @@
     </row>
     <row r="92" spans="1:16" s="5" customFormat="1">
       <c r="A92" s="184"/>
-      <c r="B92" s="182"/>
+      <c r="B92" s="187"/>
       <c r="C92" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>22</v>
@@ -17158,13 +17117,13 @@
         <v>22</v>
       </c>
       <c r="L92" s="96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>22</v>
@@ -17175,18 +17134,18 @@
     </row>
     <row r="93" spans="1:16" s="5" customFormat="1">
       <c r="A93" s="184"/>
-      <c r="B93" s="182"/>
+      <c r="B93" s="187"/>
       <c r="C93" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>26</v>
@@ -17204,13 +17163,13 @@
         <v>26</v>
       </c>
       <c r="L93" s="96" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>26</v>
@@ -17221,18 +17180,18 @@
     </row>
     <row r="94" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A94" s="184"/>
-      <c r="B94" s="182"/>
+      <c r="B94" s="187"/>
       <c r="C94" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>29</v>
@@ -17244,19 +17203,19 @@
         <v>29</v>
       </c>
       <c r="J94" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L94" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K94" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L94" s="98" t="s">
+      <c r="M94" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M94" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N94" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O94" s="14" t="s">
         <v>29</v>
@@ -17394,23 +17353,23 @@
       <c r="P98" s="35"/>
     </row>
     <row r="99" spans="1:16" s="5" customFormat="1">
-      <c r="A99" s="201" t="s">
+      <c r="A99" s="210" t="s">
+        <v>392</v>
+      </c>
+      <c r="B99" s="213" t="s">
         <v>393</v>
       </c>
-      <c r="B99" s="204" t="s">
-        <v>394</v>
-      </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F99" s="67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>19</v>
@@ -17428,13 +17387,13 @@
         <v>19</v>
       </c>
       <c r="L99" s="96" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>19</v>
@@ -17444,19 +17403,19 @@
       </c>
     </row>
     <row r="100" spans="1:16" s="5" customFormat="1">
-      <c r="A100" s="202"/>
-      <c r="B100" s="205"/>
+      <c r="A100" s="211"/>
+      <c r="B100" s="214"/>
       <c r="C100" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F100" s="67" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>22</v>
@@ -17474,13 +17433,13 @@
         <v>22</v>
       </c>
       <c r="L100" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N100" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>22</v>
@@ -17490,19 +17449,19 @@
       </c>
     </row>
     <row r="101" spans="1:16" s="5" customFormat="1">
-      <c r="A101" s="202"/>
-      <c r="B101" s="205"/>
+      <c r="A101" s="211"/>
+      <c r="B101" s="214"/>
       <c r="C101" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F101" s="67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>26</v>
@@ -17520,13 +17479,13 @@
         <v>26</v>
       </c>
       <c r="L101" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>26</v>
@@ -17536,19 +17495,19 @@
       </c>
     </row>
     <row r="102" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A102" s="202"/>
-      <c r="B102" s="206"/>
+      <c r="A102" s="211"/>
+      <c r="B102" s="215"/>
       <c r="C102" s="49" t="s">
         <v>29</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E102" s="49" t="s">
         <v>29</v>
       </c>
       <c r="F102" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G102" s="49" t="s">
         <v>29</v>
@@ -17560,29 +17519,29 @@
         <v>29</v>
       </c>
       <c r="J102" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K102" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L102" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K102" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="L102" s="98" t="s">
+      <c r="M102" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="N102" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="M102" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="N102" s="108" t="s">
-        <v>252</v>
-      </c>
       <c r="O102" s="49" t="s">
         <v>29</v>
       </c>
       <c r="P102" s="50"/>
     </row>
     <row r="103" spans="1:16" s="5" customFormat="1">
-      <c r="A103" s="202"/>
-      <c r="B103" s="207" t="s">
-        <v>403</v>
+      <c r="A103" s="211"/>
+      <c r="B103" s="216" t="s">
+        <v>402</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>19</v>
@@ -17592,7 +17551,7 @@
         <v>19</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>19</v>
@@ -17610,13 +17569,13 @@
         <v>19</v>
       </c>
       <c r="L103" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>19</v>
@@ -17626,8 +17585,8 @@
       </c>
     </row>
     <row r="104" spans="1:16" s="5" customFormat="1">
-      <c r="A104" s="202"/>
-      <c r="B104" s="205"/>
+      <c r="A104" s="211"/>
+      <c r="B104" s="214"/>
       <c r="C104" s="3" t="s">
         <v>22</v>
       </c>
@@ -17636,7 +17595,7 @@
         <v>22</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>22</v>
@@ -17654,13 +17613,13 @@
         <v>22</v>
       </c>
       <c r="L104" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N104" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>22</v>
@@ -17670,8 +17629,8 @@
       </c>
     </row>
     <row r="105" spans="1:16" s="5" customFormat="1">
-      <c r="A105" s="202"/>
-      <c r="B105" s="205"/>
+      <c r="A105" s="211"/>
+      <c r="B105" s="214"/>
       <c r="C105" s="3" t="s">
         <v>26</v>
       </c>
@@ -17680,7 +17639,7 @@
         <v>26</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>26</v>
@@ -17698,13 +17657,13 @@
         <v>26</v>
       </c>
       <c r="L105" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N105" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>26</v>
@@ -17714,8 +17673,8 @@
       </c>
     </row>
     <row r="106" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A106" s="202"/>
-      <c r="B106" s="205"/>
+      <c r="A106" s="211"/>
+      <c r="B106" s="214"/>
       <c r="C106" s="49" t="s">
         <v>29</v>
       </c>
@@ -17724,7 +17683,7 @@
         <v>29</v>
       </c>
       <c r="F106" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G106" s="49" t="s">
         <v>29</v>
@@ -17736,41 +17695,41 @@
         <v>29</v>
       </c>
       <c r="J106" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K106" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L106" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K106" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="L106" s="98" t="s">
+      <c r="M106" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="N106" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="M106" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="N106" s="108" t="s">
-        <v>252</v>
-      </c>
       <c r="O106" s="49" t="s">
         <v>29</v>
       </c>
       <c r="P106" s="50"/>
     </row>
     <row r="107" spans="1:16" s="5" customFormat="1">
-      <c r="A107" s="202"/>
-      <c r="B107" s="207" t="s">
+      <c r="A107" s="211"/>
+      <c r="B107" s="216" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>19</v>
@@ -17788,13 +17747,13 @@
         <v>19</v>
       </c>
       <c r="L107" s="96" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>19</v>
@@ -17804,19 +17763,19 @@
       </c>
     </row>
     <row r="108" spans="1:16" s="5" customFormat="1">
-      <c r="A108" s="202"/>
-      <c r="B108" s="205"/>
+      <c r="A108" s="211"/>
+      <c r="B108" s="214"/>
       <c r="C108" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>22</v>
@@ -17834,13 +17793,13 @@
         <v>22</v>
       </c>
       <c r="L108" s="96" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>22</v>
@@ -17850,13 +17809,13 @@
       </c>
     </row>
     <row r="109" spans="1:16" s="5" customFormat="1">
-      <c r="A109" s="202"/>
-      <c r="B109" s="205"/>
+      <c r="A109" s="211"/>
+      <c r="B109" s="214"/>
       <c r="C109" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>26</v>
@@ -17880,13 +17839,13 @@
         <v>26</v>
       </c>
       <c r="L109" s="96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O109" s="3" t="s">
         <v>26</v>
@@ -17896,43 +17855,43 @@
       </c>
     </row>
     <row r="110" spans="1:16" s="5" customFormat="1" ht="45">
-      <c r="A110" s="203"/>
-      <c r="B110" s="208"/>
+      <c r="A110" s="212"/>
+      <c r="B110" s="217"/>
       <c r="C110" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D110" s="113" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F110" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G110" s="14" t="s">
         <v>29</v>
       </c>
       <c r="H110" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J110" s="80" t="s">
         <v>417</v>
       </c>
-      <c r="I110" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J110" s="80" t="s">
-        <v>418</v>
-      </c>
       <c r="K110" s="14" t="s">
         <v>29</v>
       </c>
       <c r="L110" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="M110" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N110" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M110" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N110" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O110" s="14" t="s">
         <v>29</v>
@@ -17941,10 +17900,10 @@
     </row>
     <row r="111" spans="1:16" s="4" customFormat="1">
       <c r="A111" s="183" t="s">
-        <v>419</v>
-      </c>
-      <c r="B111" s="182" t="s">
-        <v>201</v>
+        <v>418</v>
+      </c>
+      <c r="B111" s="187" t="s">
+        <v>200</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>19</v>
@@ -17954,7 +17913,7 @@
         <v>19</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>19</v>
@@ -17972,13 +17931,13 @@
         <v>19</v>
       </c>
       <c r="L111" s="105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N111" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O111" s="9" t="s">
         <v>19</v>
@@ -17989,7 +17948,7 @@
     </row>
     <row r="112" spans="1:16" s="5" customFormat="1">
       <c r="A112" s="184"/>
-      <c r="B112" s="182"/>
+      <c r="B112" s="187"/>
       <c r="C112" s="3" t="s">
         <v>22</v>
       </c>
@@ -17998,7 +17957,7 @@
         <v>22</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>22</v>
@@ -18016,13 +17975,13 @@
         <v>22</v>
       </c>
       <c r="L112" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N112" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>22</v>
@@ -18033,7 +17992,7 @@
     </row>
     <row r="113" spans="1:16" s="5" customFormat="1">
       <c r="A113" s="184"/>
-      <c r="B113" s="182"/>
+      <c r="B113" s="187"/>
       <c r="C113" s="3" t="s">
         <v>26</v>
       </c>
@@ -18042,7 +18001,7 @@
         <v>26</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>26</v>
@@ -18060,13 +18019,13 @@
         <v>26</v>
       </c>
       <c r="L113" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="O113" s="3" t="s">
         <v>26</v>
@@ -18077,7 +18036,7 @@
     </row>
     <row r="114" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A114" s="184"/>
-      <c r="B114" s="182"/>
+      <c r="B114" s="187"/>
       <c r="C114" s="6" t="s">
         <v>29</v>
       </c>
@@ -18086,7 +18045,7 @@
         <v>29</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>29</v>
@@ -18096,19 +18055,19 @@
         <v>29</v>
       </c>
       <c r="J114" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L114" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K114" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L114" s="98" t="s">
+      <c r="M114" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N114" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M114" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N114" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O114" s="6" t="s">
         <v>29</v>
@@ -18117,8 +18076,8 @@
     </row>
     <row r="115" spans="1:16" s="5" customFormat="1">
       <c r="A115" s="184"/>
-      <c r="B115" s="168" t="s">
-        <v>209</v>
+      <c r="B115" s="163" t="s">
+        <v>208</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
@@ -18128,7 +18087,7 @@
         <v>19</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>19</v>
@@ -18146,13 +18105,13 @@
         <v>19</v>
       </c>
       <c r="L115" s="96" t="s">
+        <v>428</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>19</v>
@@ -18172,7 +18131,7 @@
         <v>22</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>22</v>
@@ -18190,13 +18149,13 @@
         <v>22</v>
       </c>
       <c r="L116" s="96" t="s">
+        <v>431</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N116" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>22</v>
@@ -18216,7 +18175,7 @@
         <v>26</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>26</v>
@@ -18234,13 +18193,13 @@
         <v>26</v>
       </c>
       <c r="L117" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="M117" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N117" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>26</v>
@@ -18260,7 +18219,7 @@
         <v>29</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>29</v>
@@ -18272,19 +18231,19 @@
         <v>29</v>
       </c>
       <c r="J118" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K118" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L118" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K118" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L118" s="98" t="s">
+      <c r="M118" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N118" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M118" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N118" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O118" s="14" t="s">
         <v>29</v>
@@ -18293,8 +18252,8 @@
     </row>
     <row r="119" spans="1:16" s="5" customFormat="1">
       <c r="A119" s="184"/>
-      <c r="B119" s="168" t="s">
-        <v>217</v>
+      <c r="B119" s="163" t="s">
+        <v>216</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
@@ -18304,7 +18263,7 @@
         <v>19</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>19</v>
@@ -18322,13 +18281,13 @@
         <v>19</v>
       </c>
       <c r="L119" s="99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N119" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>19</v>
@@ -18348,7 +18307,7 @@
         <v>22</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>22</v>
@@ -18366,13 +18325,13 @@
         <v>22</v>
       </c>
       <c r="L120" s="96" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M120" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N120" s="109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>22</v>
@@ -18392,7 +18351,7 @@
         <v>26</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>26</v>
@@ -18410,13 +18369,13 @@
         <v>26</v>
       </c>
       <c r="L121" s="96" t="s">
+        <v>440</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N121" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="M121" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N121" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="O121" s="3" t="s">
         <v>26</v>
@@ -18436,7 +18395,7 @@
         <v>29</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G122" s="14" t="s">
         <v>29</v>
@@ -18448,19 +18407,19 @@
         <v>29</v>
       </c>
       <c r="J122" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="K122" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L122" s="98" t="s">
         <v>250</v>
       </c>
-      <c r="K122" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L122" s="98" t="s">
+      <c r="M122" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N122" s="108" t="s">
         <v>251</v>
-      </c>
-      <c r="M122" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N122" s="108" t="s">
-        <v>252</v>
       </c>
       <c r="O122" s="14" t="s">
         <v>29</v>
@@ -18526,7 +18485,7 @@
         <v>22</v>
       </c>
       <c r="L124" s="106" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M124" s="3" t="s">
         <v>22</v>
@@ -18560,7 +18519,7 @@
         <v>26</v>
       </c>
       <c r="L125" s="106" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M125" s="3" t="s">
         <v>26</v>
@@ -18594,7 +18553,7 @@
         <v>29</v>
       </c>
       <c r="L126" s="107" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M126" s="10" t="s">
         <v>29</v>
@@ -18606,11 +18565,11 @@
       <c r="P126" s="35"/>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1">
-      <c r="A127" s="217" t="s">
+      <c r="A127" s="180" t="s">
+        <v>444</v>
+      </c>
+      <c r="B127" s="198" t="s">
         <v>445</v>
-      </c>
-      <c r="B127" s="213" t="s">
-        <v>446</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>19</v>
@@ -18620,7 +18579,7 @@
         <v>19</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>19</v>
@@ -18644,8 +18603,8 @@
       <c r="P127" s="32"/>
     </row>
     <row r="128" spans="1:16" s="5" customFormat="1">
-      <c r="A128" s="218"/>
-      <c r="B128" s="187"/>
+      <c r="A128" s="181"/>
+      <c r="B128" s="199"/>
       <c r="C128" s="3" t="s">
         <v>22</v>
       </c>
@@ -18654,7 +18613,7 @@
         <v>22</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>22</v>
@@ -18678,8 +18637,8 @@
       <c r="P128" s="33"/>
     </row>
     <row r="129" spans="1:16" s="5" customFormat="1">
-      <c r="A129" s="218"/>
-      <c r="B129" s="187"/>
+      <c r="A129" s="181"/>
+      <c r="B129" s="199"/>
       <c r="C129" s="3" t="s">
         <v>26</v>
       </c>
@@ -18688,7 +18647,7 @@
         <v>26</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>26</v>
@@ -18712,8 +18671,8 @@
       <c r="P129" s="33"/>
     </row>
     <row r="130" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A130" s="218"/>
-      <c r="B130" s="187"/>
+      <c r="A130" s="181"/>
+      <c r="B130" s="199"/>
       <c r="C130" s="14" t="s">
         <v>29</v>
       </c>
@@ -18722,7 +18681,7 @@
         <v>29</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G130" s="14" t="s">
         <v>29</v>
@@ -18746,9 +18705,9 @@
       <c r="P130" s="33"/>
     </row>
     <row r="131" spans="1:16" s="5" customFormat="1">
-      <c r="A131" s="218"/>
-      <c r="B131" s="189" t="s">
-        <v>449</v>
+      <c r="A131" s="181"/>
+      <c r="B131" s="200" t="s">
+        <v>448</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
@@ -18758,7 +18717,7 @@
         <v>19</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>19</v>
@@ -18782,8 +18741,8 @@
       <c r="P131" s="39"/>
     </row>
     <row r="132" spans="1:16" s="5" customFormat="1">
-      <c r="A132" s="218"/>
-      <c r="B132" s="182"/>
+      <c r="A132" s="181"/>
+      <c r="B132" s="187"/>
       <c r="C132" s="3" t="s">
         <v>22</v>
       </c>
@@ -18792,7 +18751,7 @@
         <v>22</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>22</v>
@@ -18816,8 +18775,8 @@
       <c r="P132" s="40"/>
     </row>
     <row r="133" spans="1:16" s="5" customFormat="1">
-      <c r="A133" s="218"/>
-      <c r="B133" s="182"/>
+      <c r="A133" s="181"/>
+      <c r="B133" s="187"/>
       <c r="C133" s="3" t="s">
         <v>26</v>
       </c>
@@ -18826,7 +18785,7 @@
         <v>26</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>26</v>
@@ -18850,8 +18809,8 @@
       <c r="P133" s="40"/>
     </row>
     <row r="134" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A134" s="218"/>
-      <c r="B134" s="182"/>
+      <c r="A134" s="181"/>
+      <c r="B134" s="187"/>
       <c r="C134" s="14" t="s">
         <v>29</v>
       </c>
@@ -18860,7 +18819,7 @@
         <v>29</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>29</v>
@@ -18884,9 +18843,9 @@
       <c r="P134" s="41"/>
     </row>
     <row r="135" spans="1:16" s="5" customFormat="1">
-      <c r="A135" s="218"/>
-      <c r="B135" s="214" t="s">
-        <v>452</v>
+      <c r="A135" s="181"/>
+      <c r="B135" s="201" t="s">
+        <v>451</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
@@ -18896,7 +18855,7 @@
         <v>19</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>19</v>
@@ -18920,8 +18879,8 @@
       <c r="P135" s="39"/>
     </row>
     <row r="136" spans="1:16" s="5" customFormat="1">
-      <c r="A136" s="218"/>
-      <c r="B136" s="187"/>
+      <c r="A136" s="181"/>
+      <c r="B136" s="199"/>
       <c r="C136" s="3" t="s">
         <v>22</v>
       </c>
@@ -18930,7 +18889,7 @@
         <v>22</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>22</v>
@@ -18954,8 +18913,8 @@
       <c r="P136" s="40"/>
     </row>
     <row r="137" spans="1:16" s="5" customFormat="1">
-      <c r="A137" s="218"/>
-      <c r="B137" s="187"/>
+      <c r="A137" s="181"/>
+      <c r="B137" s="199"/>
       <c r="C137" s="3" t="s">
         <v>26</v>
       </c>
@@ -18964,7 +18923,7 @@
         <v>26</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>26</v>
@@ -18988,8 +18947,8 @@
       <c r="P137" s="40"/>
     </row>
     <row r="138" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A138" s="218"/>
-      <c r="B138" s="188"/>
+      <c r="A138" s="181"/>
+      <c r="B138" s="202"/>
       <c r="C138" s="14" t="s">
         <v>29</v>
       </c>
@@ -18998,7 +18957,7 @@
         <v>29</v>
       </c>
       <c r="F138" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G138" s="14" t="s">
         <v>29</v>
@@ -19022,9 +18981,9 @@
       <c r="P138" s="41"/>
     </row>
     <row r="139" spans="1:16" s="5" customFormat="1">
-      <c r="A139" s="218"/>
-      <c r="B139" s="182" t="s">
-        <v>454</v>
+      <c r="A139" s="181"/>
+      <c r="B139" s="187" t="s">
+        <v>453</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>19</v>
@@ -19034,7 +18993,7 @@
         <v>19</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>19</v>
@@ -19058,8 +19017,8 @@
       <c r="P139" s="39"/>
     </row>
     <row r="140" spans="1:16" s="5" customFormat="1">
-      <c r="A140" s="218"/>
-      <c r="B140" s="182"/>
+      <c r="A140" s="181"/>
+      <c r="B140" s="187"/>
       <c r="C140" s="3" t="s">
         <v>22</v>
       </c>
@@ -19068,7 +19027,7 @@
         <v>22</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>22</v>
@@ -19092,8 +19051,8 @@
       <c r="P140" s="40"/>
     </row>
     <row r="141" spans="1:16" s="5" customFormat="1">
-      <c r="A141" s="218"/>
-      <c r="B141" s="182"/>
+      <c r="A141" s="181"/>
+      <c r="B141" s="187"/>
       <c r="C141" s="3" t="s">
         <v>26</v>
       </c>
@@ -19102,7 +19061,7 @@
         <v>26</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>26</v>
@@ -19126,8 +19085,8 @@
       <c r="P141" s="40"/>
     </row>
     <row r="142" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A142" s="218"/>
-      <c r="B142" s="215"/>
+      <c r="A142" s="181"/>
+      <c r="B142" s="203"/>
       <c r="C142" s="14" t="s">
         <v>29</v>
       </c>
@@ -19136,7 +19095,7 @@
         <v>29</v>
       </c>
       <c r="F142" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G142" s="14" t="s">
         <v>29</v>
@@ -19160,9 +19119,9 @@
       <c r="P142" s="41"/>
     </row>
     <row r="143" spans="1:16" s="5" customFormat="1">
-      <c r="A143" s="218"/>
-      <c r="B143" s="187" t="s">
-        <v>457</v>
+      <c r="A143" s="181"/>
+      <c r="B143" s="199" t="s">
+        <v>456</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
@@ -19172,7 +19131,7 @@
         <v>19</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>19</v>
@@ -19196,8 +19155,8 @@
       <c r="P143" s="39"/>
     </row>
     <row r="144" spans="1:16" s="5" customFormat="1">
-      <c r="A144" s="218"/>
-      <c r="B144" s="187"/>
+      <c r="A144" s="181"/>
+      <c r="B144" s="199"/>
       <c r="C144" s="3" t="s">
         <v>22</v>
       </c>
@@ -19206,7 +19165,7 @@
         <v>22</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>22</v>
@@ -19230,8 +19189,8 @@
       <c r="P144" s="40"/>
     </row>
     <row r="145" spans="1:16" s="5" customFormat="1">
-      <c r="A145" s="218"/>
-      <c r="B145" s="187"/>
+      <c r="A145" s="181"/>
+      <c r="B145" s="199"/>
       <c r="C145" s="3" t="s">
         <v>26</v>
       </c>
@@ -19240,7 +19199,7 @@
         <v>26</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>26</v>
@@ -19264,8 +19223,8 @@
       <c r="P145" s="40"/>
     </row>
     <row r="146" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A146" s="218"/>
-      <c r="B146" s="188"/>
+      <c r="A146" s="181"/>
+      <c r="B146" s="202"/>
       <c r="C146" s="14" t="s">
         <v>29</v>
       </c>
@@ -19274,7 +19233,7 @@
         <v>29</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G146" s="14" t="s">
         <v>29</v>
@@ -19298,9 +19257,9 @@
       <c r="P146" s="41"/>
     </row>
     <row r="147" spans="1:16" s="5" customFormat="1">
-      <c r="A147" s="218"/>
-      <c r="B147" s="182" t="s">
-        <v>461</v>
+      <c r="A147" s="181"/>
+      <c r="B147" s="187" t="s">
+        <v>460</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>19</v>
@@ -19310,7 +19269,7 @@
         <v>19</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>19</v>
@@ -19334,8 +19293,8 @@
       <c r="P147" s="39"/>
     </row>
     <row r="148" spans="1:16" s="5" customFormat="1">
-      <c r="A148" s="218"/>
-      <c r="B148" s="182"/>
+      <c r="A148" s="181"/>
+      <c r="B148" s="187"/>
       <c r="C148" s="3" t="s">
         <v>22</v>
       </c>
@@ -19344,7 +19303,7 @@
         <v>22</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>22</v>
@@ -19368,8 +19327,8 @@
       <c r="P148" s="40"/>
     </row>
     <row r="149" spans="1:16" s="5" customFormat="1">
-      <c r="A149" s="218"/>
-      <c r="B149" s="182"/>
+      <c r="A149" s="181"/>
+      <c r="B149" s="187"/>
       <c r="C149" s="3" t="s">
         <v>26</v>
       </c>
@@ -19378,7 +19337,7 @@
         <v>26</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>26</v>
@@ -19402,8 +19361,8 @@
       <c r="P149" s="40"/>
     </row>
     <row r="150" spans="1:16" s="5" customFormat="1" ht="30">
-      <c r="A150" s="218"/>
-      <c r="B150" s="182"/>
+      <c r="A150" s="181"/>
+      <c r="B150" s="187"/>
       <c r="C150" s="14" t="s">
         <v>29</v>
       </c>
@@ -19412,7 +19371,7 @@
         <v>29</v>
       </c>
       <c r="F150" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G150" s="14" t="s">
         <v>29</v>
@@ -19436,8 +19395,8 @@
       <c r="P150" s="41"/>
     </row>
     <row r="151" spans="1:16" s="5" customFormat="1">
-      <c r="A151" s="218"/>
-      <c r="B151" s="209" t="s">
+      <c r="A151" s="181"/>
+      <c r="B151" s="188" t="s">
         <v>72</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -19470,8 +19429,8 @@
       <c r="P151" s="39"/>
     </row>
     <row r="152" spans="1:16" s="5" customFormat="1">
-      <c r="A152" s="218"/>
-      <c r="B152" s="210"/>
+      <c r="A152" s="181"/>
+      <c r="B152" s="189"/>
       <c r="C152" s="3" t="s">
         <v>22</v>
       </c>
@@ -19502,8 +19461,8 @@
       <c r="P152" s="40"/>
     </row>
     <row r="153" spans="1:16" s="5" customFormat="1">
-      <c r="A153" s="218"/>
-      <c r="B153" s="210"/>
+      <c r="A153" s="181"/>
+      <c r="B153" s="189"/>
       <c r="C153" s="3" t="s">
         <v>26</v>
       </c>
@@ -19534,8 +19493,8 @@
       <c r="P153" s="40"/>
     </row>
     <row r="154" spans="1:16" s="7" customFormat="1">
-      <c r="A154" s="219"/>
-      <c r="B154" s="211"/>
+      <c r="A154" s="182"/>
+      <c r="B154" s="190"/>
       <c r="C154" s="10" t="s">
         <v>29</v>
       </c>
@@ -19567,16 +19526,16 @@
     </row>
     <row r="155" spans="1:16" s="4" customFormat="1">
       <c r="A155" s="183" t="s">
+        <v>463</v>
+      </c>
+      <c r="B155" s="191" t="s">
         <v>464</v>
       </c>
-      <c r="B155" s="181" t="s">
+      <c r="C155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="E155" s="51" t="s">
         <v>19</v>
@@ -19605,12 +19564,12 @@
     </row>
     <row r="156" spans="1:16" s="5" customFormat="1">
       <c r="A156" s="184"/>
-      <c r="B156" s="182"/>
+      <c r="B156" s="187"/>
       <c r="C156" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E156" s="52" t="s">
         <v>22</v>
@@ -19639,12 +19598,12 @@
     </row>
     <row r="157" spans="1:16" s="5" customFormat="1">
       <c r="A157" s="184"/>
-      <c r="B157" s="182"/>
+      <c r="B157" s="187"/>
       <c r="C157" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E157" s="52" t="s">
         <v>26</v>
@@ -19673,12 +19632,12 @@
     </row>
     <row r="158" spans="1:16" s="5" customFormat="1" ht="45">
       <c r="A158" s="184"/>
-      <c r="B158" s="182"/>
+      <c r="B158" s="187"/>
       <c r="C158" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E158" s="54" t="s">
         <v>29</v>
@@ -19708,13 +19667,13 @@
     <row r="159" spans="1:16" s="5" customFormat="1">
       <c r="A159" s="184"/>
       <c r="B159" s="192" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="16" t="s">
         <v>469</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="16" t="s">
-        <v>470</v>
       </c>
       <c r="E159" s="51" t="s">
         <v>19</v>
@@ -19748,7 +19707,7 @@
         <v>22</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E160" s="52" t="s">
         <v>22</v>
@@ -19782,7 +19741,7 @@
         <v>26</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E161" s="52" t="s">
         <v>26</v>
@@ -19816,7 +19775,7 @@
         <v>29</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E162" s="54" t="s">
         <v>29</v>
@@ -19845,14 +19804,14 @@
     </row>
     <row r="163" spans="1:16" s="5" customFormat="1">
       <c r="A163" s="184"/>
-      <c r="B163" s="168" t="s">
+      <c r="B163" s="163" t="s">
+        <v>472</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="16" t="s">
         <v>473</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>474</v>
       </c>
       <c r="E163" s="51" t="s">
         <v>19</v>
@@ -19886,7 +19845,7 @@
         <v>22</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E164" s="52" t="s">
         <v>22</v>
@@ -19920,7 +19879,7 @@
         <v>26</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E165" s="52" t="s">
         <v>26</v>
@@ -19949,12 +19908,12 @@
     </row>
     <row r="166" spans="1:16" s="7" customFormat="1" ht="45">
       <c r="A166" s="185"/>
-      <c r="B166" s="169"/>
+      <c r="B166" s="167"/>
       <c r="C166" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E166" s="61" t="s">
         <v>29</v>
@@ -19982,684 +19941,755 @@
       <c r="P166" s="65"/>
     </row>
     <row r="167" spans="1:16">
-      <c r="B167" s="212" t="s">
+      <c r="B167" s="194" t="s">
+        <v>476</v>
+      </c>
+      <c r="J167" s="76"/>
+    </row>
+    <row r="168" spans="1:16">
+      <c r="B168" s="194"/>
+      <c r="D168" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="J167" s="76"/>
-    </row>
-    <row r="168" spans="1:16">
-      <c r="B168" s="212"/>
-      <c r="D168" s="3" t="s">
+      <c r="F168" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J168" s="76"/>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="B169" s="194"/>
+      <c r="D169" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F169" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="J168" s="76"/>
-    </row>
-    <row r="169" spans="1:16">
-      <c r="B169" s="212"/>
-      <c r="D169" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="J169" s="76"/>
     </row>
     <row r="170" spans="1:16">
-      <c r="B170" s="212"/>
+      <c r="B170" s="194"/>
     </row>
     <row r="171" spans="1:16">
-      <c r="B171" s="216"/>
+      <c r="B171" s="186"/>
     </row>
     <row r="172" spans="1:16">
-      <c r="B172" s="216"/>
+      <c r="B172" s="186"/>
     </row>
     <row r="173" spans="1:16">
-      <c r="B173" s="216"/>
+      <c r="B173" s="186"/>
     </row>
     <row r="174" spans="1:16">
-      <c r="B174" s="216"/>
+      <c r="B174" s="186"/>
     </row>
     <row r="175" spans="1:16">
-      <c r="B175" s="216"/>
+      <c r="B175" s="186"/>
     </row>
     <row r="176" spans="1:16">
-      <c r="B176" s="216"/>
+      <c r="B176" s="186"/>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="216"/>
+      <c r="B177" s="186"/>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="216"/>
+      <c r="B178" s="186"/>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="216"/>
+      <c r="B179" s="186"/>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="216"/>
+      <c r="B180" s="186"/>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="216"/>
+      <c r="B181" s="186"/>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="216"/>
+      <c r="B182" s="186"/>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="216"/>
+      <c r="B183" s="186"/>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="216"/>
+      <c r="B184" s="186"/>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="216"/>
+      <c r="B185" s="186"/>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="216"/>
+      <c r="B186" s="186"/>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="216"/>
+      <c r="B187" s="186"/>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="216"/>
+      <c r="B188" s="186"/>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="216"/>
+      <c r="B189" s="186"/>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="216"/>
+      <c r="B190" s="186"/>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="216"/>
+      <c r="B191" s="186"/>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="216"/>
+      <c r="B192" s="186"/>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="216"/>
+      <c r="B193" s="186"/>
     </row>
     <row r="194" spans="2:2">
-      <c r="B194" s="216"/>
+      <c r="B194" s="186"/>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="216"/>
+      <c r="B195" s="186"/>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="216"/>
+      <c r="B196" s="186"/>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="216"/>
+      <c r="B197" s="186"/>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="216"/>
+      <c r="B198" s="186"/>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="216"/>
+      <c r="B199" s="186"/>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="216"/>
+      <c r="B200" s="186"/>
     </row>
     <row r="201" spans="2:2">
-      <c r="B201" s="216"/>
+      <c r="B201" s="186"/>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="216"/>
+      <c r="B202" s="186"/>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="216"/>
+      <c r="B203" s="186"/>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="216"/>
+      <c r="B204" s="186"/>
     </row>
     <row r="205" spans="2:2">
-      <c r="B205" s="216"/>
+      <c r="B205" s="186"/>
     </row>
     <row r="206" spans="2:2">
-      <c r="B206" s="216"/>
+      <c r="B206" s="186"/>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="216"/>
+      <c r="B207" s="186"/>
     </row>
     <row r="208" spans="2:2">
-      <c r="B208" s="216"/>
+      <c r="B208" s="186"/>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="216"/>
+      <c r="B209" s="186"/>
     </row>
     <row r="210" spans="2:2">
-      <c r="B210" s="216"/>
+      <c r="B210" s="186"/>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="216"/>
+      <c r="B211" s="186"/>
     </row>
     <row r="212" spans="2:2">
-      <c r="B212" s="216"/>
+      <c r="B212" s="186"/>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="216"/>
+      <c r="B213" s="186"/>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="216"/>
+      <c r="B214" s="186"/>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="216"/>
+      <c r="B215" s="186"/>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="216"/>
+      <c r="B216" s="186"/>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="216"/>
+      <c r="B217" s="186"/>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="216"/>
+      <c r="B218" s="186"/>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" s="216"/>
+      <c r="B219" s="186"/>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="216"/>
+      <c r="B220" s="186"/>
     </row>
     <row r="221" spans="2:2">
-      <c r="B221" s="216"/>
+      <c r="B221" s="186"/>
     </row>
     <row r="222" spans="2:2">
-      <c r="B222" s="216"/>
+      <c r="B222" s="186"/>
     </row>
     <row r="223" spans="2:2">
-      <c r="B223" s="216"/>
+      <c r="B223" s="186"/>
     </row>
     <row r="224" spans="2:2">
-      <c r="B224" s="216"/>
+      <c r="B224" s="186"/>
     </row>
     <row r="225" spans="2:2">
-      <c r="B225" s="216"/>
+      <c r="B225" s="186"/>
     </row>
     <row r="226" spans="2:2">
-      <c r="B226" s="216"/>
+      <c r="B226" s="186"/>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="216"/>
+      <c r="B227" s="186"/>
     </row>
     <row r="228" spans="2:2">
-      <c r="B228" s="216"/>
+      <c r="B228" s="186"/>
     </row>
     <row r="229" spans="2:2">
-      <c r="B229" s="216"/>
+      <c r="B229" s="186"/>
     </row>
     <row r="230" spans="2:2">
-      <c r="B230" s="216"/>
+      <c r="B230" s="186"/>
     </row>
     <row r="231" spans="2:2">
-      <c r="B231" s="216"/>
+      <c r="B231" s="186"/>
     </row>
     <row r="232" spans="2:2">
-      <c r="B232" s="216"/>
+      <c r="B232" s="186"/>
     </row>
     <row r="233" spans="2:2">
-      <c r="B233" s="216"/>
+      <c r="B233" s="186"/>
     </row>
     <row r="234" spans="2:2">
-      <c r="B234" s="216"/>
+      <c r="B234" s="186"/>
     </row>
     <row r="235" spans="2:2">
-      <c r="B235" s="216"/>
+      <c r="B235" s="186"/>
     </row>
     <row r="236" spans="2:2">
-      <c r="B236" s="216"/>
+      <c r="B236" s="186"/>
     </row>
     <row r="237" spans="2:2">
-      <c r="B237" s="216"/>
+      <c r="B237" s="186"/>
     </row>
     <row r="238" spans="2:2">
-      <c r="B238" s="216"/>
+      <c r="B238" s="186"/>
     </row>
     <row r="239" spans="2:2">
-      <c r="B239" s="216"/>
+      <c r="B239" s="186"/>
     </row>
     <row r="240" spans="2:2">
-      <c r="B240" s="216"/>
+      <c r="B240" s="186"/>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" s="216"/>
+      <c r="B241" s="186"/>
     </row>
     <row r="242" spans="2:2">
-      <c r="B242" s="216"/>
+      <c r="B242" s="186"/>
     </row>
     <row r="243" spans="2:2">
-      <c r="B243" s="216"/>
+      <c r="B243" s="186"/>
     </row>
     <row r="244" spans="2:2">
-      <c r="B244" s="216"/>
+      <c r="B244" s="186"/>
     </row>
     <row r="245" spans="2:2">
-      <c r="B245" s="216"/>
+      <c r="B245" s="186"/>
     </row>
     <row r="246" spans="2:2">
-      <c r="B246" s="216"/>
+      <c r="B246" s="186"/>
     </row>
     <row r="247" spans="2:2">
-      <c r="B247" s="216"/>
+      <c r="B247" s="186"/>
     </row>
     <row r="248" spans="2:2">
-      <c r="B248" s="216"/>
+      <c r="B248" s="186"/>
     </row>
     <row r="249" spans="2:2">
-      <c r="B249" s="216"/>
+      <c r="B249" s="186"/>
     </row>
     <row r="250" spans="2:2">
-      <c r="B250" s="216"/>
+      <c r="B250" s="186"/>
     </row>
     <row r="251" spans="2:2">
-      <c r="B251" s="216"/>
+      <c r="B251" s="186"/>
     </row>
     <row r="252" spans="2:2">
-      <c r="B252" s="216"/>
+      <c r="B252" s="186"/>
     </row>
     <row r="253" spans="2:2">
-      <c r="B253" s="216"/>
+      <c r="B253" s="186"/>
     </row>
     <row r="254" spans="2:2">
-      <c r="B254" s="216"/>
+      <c r="B254" s="186"/>
     </row>
     <row r="255" spans="2:2">
-      <c r="B255" s="216"/>
+      <c r="B255" s="186"/>
     </row>
     <row r="256" spans="2:2">
-      <c r="B256" s="216"/>
+      <c r="B256" s="186"/>
     </row>
     <row r="257" spans="2:2">
-      <c r="B257" s="216"/>
+      <c r="B257" s="186"/>
     </row>
     <row r="258" spans="2:2">
-      <c r="B258" s="216"/>
+      <c r="B258" s="186"/>
     </row>
     <row r="259" spans="2:2">
-      <c r="B259" s="216"/>
+      <c r="B259" s="186"/>
     </row>
     <row r="260" spans="2:2">
-      <c r="B260" s="216"/>
+      <c r="B260" s="186"/>
     </row>
     <row r="261" spans="2:2">
-      <c r="B261" s="216"/>
+      <c r="B261" s="186"/>
     </row>
     <row r="262" spans="2:2">
-      <c r="B262" s="216"/>
+      <c r="B262" s="186"/>
     </row>
     <row r="263" spans="2:2">
-      <c r="B263" s="216"/>
+      <c r="B263" s="186"/>
     </row>
     <row r="264" spans="2:2">
-      <c r="B264" s="216"/>
+      <c r="B264" s="186"/>
     </row>
     <row r="265" spans="2:2">
-      <c r="B265" s="216"/>
+      <c r="B265" s="186"/>
     </row>
     <row r="266" spans="2:2">
-      <c r="B266" s="216"/>
+      <c r="B266" s="186"/>
     </row>
     <row r="267" spans="2:2">
-      <c r="B267" s="216"/>
+      <c r="B267" s="186"/>
     </row>
     <row r="268" spans="2:2">
-      <c r="B268" s="216"/>
+      <c r="B268" s="186"/>
     </row>
     <row r="269" spans="2:2">
-      <c r="B269" s="216"/>
+      <c r="B269" s="186"/>
     </row>
     <row r="270" spans="2:2">
-      <c r="B270" s="216"/>
+      <c r="B270" s="186"/>
     </row>
     <row r="271" spans="2:2">
-      <c r="B271" s="216"/>
+      <c r="B271" s="186"/>
     </row>
     <row r="272" spans="2:2">
-      <c r="B272" s="216"/>
+      <c r="B272" s="186"/>
     </row>
     <row r="273" spans="2:2">
-      <c r="B273" s="216"/>
+      <c r="B273" s="186"/>
     </row>
     <row r="274" spans="2:2">
-      <c r="B274" s="216"/>
+      <c r="B274" s="186"/>
     </row>
     <row r="275" spans="2:2">
-      <c r="B275" s="216"/>
+      <c r="B275" s="186"/>
     </row>
     <row r="276" spans="2:2">
-      <c r="B276" s="216"/>
+      <c r="B276" s="186"/>
     </row>
     <row r="277" spans="2:2">
-      <c r="B277" s="216"/>
+      <c r="B277" s="186"/>
     </row>
     <row r="278" spans="2:2">
-      <c r="B278" s="216"/>
+      <c r="B278" s="186"/>
     </row>
     <row r="279" spans="2:2">
-      <c r="B279" s="216"/>
+      <c r="B279" s="186"/>
     </row>
     <row r="280" spans="2:2">
-      <c r="B280" s="216"/>
+      <c r="B280" s="186"/>
     </row>
     <row r="281" spans="2:2">
-      <c r="B281" s="216"/>
+      <c r="B281" s="186"/>
     </row>
     <row r="282" spans="2:2">
-      <c r="B282" s="216"/>
+      <c r="B282" s="186"/>
     </row>
     <row r="283" spans="2:2">
-      <c r="B283" s="216"/>
+      <c r="B283" s="186"/>
     </row>
     <row r="284" spans="2:2">
-      <c r="B284" s="216"/>
+      <c r="B284" s="186"/>
     </row>
     <row r="285" spans="2:2">
-      <c r="B285" s="216"/>
+      <c r="B285" s="186"/>
     </row>
     <row r="286" spans="2:2">
-      <c r="B286" s="216"/>
+      <c r="B286" s="186"/>
     </row>
     <row r="287" spans="2:2">
-      <c r="B287" s="216"/>
+      <c r="B287" s="186"/>
     </row>
     <row r="288" spans="2:2">
-      <c r="B288" s="216"/>
+      <c r="B288" s="186"/>
     </row>
     <row r="289" spans="2:2">
-      <c r="B289" s="216"/>
+      <c r="B289" s="186"/>
     </row>
     <row r="290" spans="2:2">
-      <c r="B290" s="216"/>
+      <c r="B290" s="186"/>
     </row>
     <row r="291" spans="2:2">
-      <c r="B291" s="216"/>
+      <c r="B291" s="186"/>
     </row>
     <row r="292" spans="2:2">
-      <c r="B292" s="216"/>
+      <c r="B292" s="186"/>
     </row>
     <row r="293" spans="2:2">
-      <c r="B293" s="216"/>
+      <c r="B293" s="186"/>
     </row>
     <row r="294" spans="2:2">
-      <c r="B294" s="216"/>
+      <c r="B294" s="186"/>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" s="216"/>
+      <c r="B295" s="186"/>
     </row>
     <row r="296" spans="2:2">
-      <c r="B296" s="216"/>
+      <c r="B296" s="186"/>
     </row>
     <row r="297" spans="2:2">
-      <c r="B297" s="216"/>
+      <c r="B297" s="186"/>
     </row>
     <row r="298" spans="2:2">
-      <c r="B298" s="216"/>
+      <c r="B298" s="186"/>
     </row>
     <row r="299" spans="2:2">
-      <c r="B299" s="216"/>
+      <c r="B299" s="186"/>
     </row>
     <row r="300" spans="2:2">
-      <c r="B300" s="216"/>
+      <c r="B300" s="186"/>
     </row>
     <row r="301" spans="2:2">
-      <c r="B301" s="216"/>
+      <c r="B301" s="186"/>
     </row>
     <row r="302" spans="2:2">
-      <c r="B302" s="216"/>
+      <c r="B302" s="186"/>
     </row>
     <row r="303" spans="2:2">
-      <c r="B303" s="216"/>
+      <c r="B303" s="186"/>
     </row>
     <row r="304" spans="2:2">
-      <c r="B304" s="216"/>
+      <c r="B304" s="186"/>
     </row>
     <row r="305" spans="2:2">
-      <c r="B305" s="216"/>
+      <c r="B305" s="186"/>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="216"/>
+      <c r="B306" s="186"/>
     </row>
     <row r="307" spans="2:2">
-      <c r="B307" s="216"/>
+      <c r="B307" s="186"/>
     </row>
     <row r="308" spans="2:2">
-      <c r="B308" s="216"/>
+      <c r="B308" s="186"/>
     </row>
     <row r="309" spans="2:2">
-      <c r="B309" s="216"/>
+      <c r="B309" s="186"/>
     </row>
     <row r="310" spans="2:2">
-      <c r="B310" s="216"/>
+      <c r="B310" s="186"/>
     </row>
     <row r="311" spans="2:2">
-      <c r="B311" s="216"/>
+      <c r="B311" s="186"/>
     </row>
     <row r="312" spans="2:2">
-      <c r="B312" s="216"/>
+      <c r="B312" s="186"/>
     </row>
     <row r="313" spans="2:2">
-      <c r="B313" s="216"/>
+      <c r="B313" s="186"/>
     </row>
     <row r="314" spans="2:2">
-      <c r="B314" s="216"/>
+      <c r="B314" s="186"/>
     </row>
     <row r="315" spans="2:2">
-      <c r="B315" s="216"/>
+      <c r="B315" s="186"/>
     </row>
     <row r="316" spans="2:2">
-      <c r="B316" s="216"/>
+      <c r="B316" s="186"/>
     </row>
     <row r="317" spans="2:2">
-      <c r="B317" s="216"/>
+      <c r="B317" s="186"/>
     </row>
     <row r="318" spans="2:2">
-      <c r="B318" s="216"/>
+      <c r="B318" s="186"/>
     </row>
     <row r="319" spans="2:2">
-      <c r="B319" s="216"/>
+      <c r="B319" s="186"/>
     </row>
     <row r="320" spans="2:2">
-      <c r="B320" s="216"/>
+      <c r="B320" s="186"/>
     </row>
     <row r="321" spans="2:2">
-      <c r="B321" s="216"/>
+      <c r="B321" s="186"/>
     </row>
     <row r="322" spans="2:2">
-      <c r="B322" s="216"/>
+      <c r="B322" s="186"/>
     </row>
     <row r="323" spans="2:2">
-      <c r="B323" s="216"/>
+      <c r="B323" s="186"/>
     </row>
     <row r="324" spans="2:2">
-      <c r="B324" s="216"/>
+      <c r="B324" s="186"/>
     </row>
     <row r="325" spans="2:2">
-      <c r="B325" s="216"/>
+      <c r="B325" s="186"/>
     </row>
     <row r="326" spans="2:2">
-      <c r="B326" s="216"/>
+      <c r="B326" s="186"/>
     </row>
     <row r="327" spans="2:2">
-      <c r="B327" s="216"/>
+      <c r="B327" s="186"/>
     </row>
     <row r="328" spans="2:2">
-      <c r="B328" s="216"/>
+      <c r="B328" s="186"/>
     </row>
     <row r="329" spans="2:2">
-      <c r="B329" s="216"/>
+      <c r="B329" s="186"/>
     </row>
     <row r="330" spans="2:2">
-      <c r="B330" s="216"/>
+      <c r="B330" s="186"/>
     </row>
     <row r="331" spans="2:2">
-      <c r="B331" s="216"/>
+      <c r="B331" s="186"/>
     </row>
     <row r="332" spans="2:2">
-      <c r="B332" s="216"/>
+      <c r="B332" s="186"/>
     </row>
     <row r="333" spans="2:2">
-      <c r="B333" s="216"/>
+      <c r="B333" s="186"/>
     </row>
     <row r="334" spans="2:2">
-      <c r="B334" s="216"/>
+      <c r="B334" s="186"/>
     </row>
     <row r="335" spans="2:2">
-      <c r="B335" s="216"/>
+      <c r="B335" s="186"/>
     </row>
     <row r="336" spans="2:2">
-      <c r="B336" s="216"/>
+      <c r="B336" s="186"/>
     </row>
     <row r="337" spans="2:2">
-      <c r="B337" s="216"/>
+      <c r="B337" s="186"/>
     </row>
     <row r="338" spans="2:2">
-      <c r="B338" s="216"/>
+      <c r="B338" s="186"/>
     </row>
     <row r="339" spans="2:2">
-      <c r="B339" s="216"/>
+      <c r="B339" s="186"/>
     </row>
     <row r="340" spans="2:2">
-      <c r="B340" s="216"/>
+      <c r="B340" s="186"/>
     </row>
     <row r="341" spans="2:2">
-      <c r="B341" s="216"/>
+      <c r="B341" s="186"/>
     </row>
     <row r="342" spans="2:2">
-      <c r="B342" s="216"/>
+      <c r="B342" s="186"/>
     </row>
     <row r="343" spans="2:2">
-      <c r="B343" s="216"/>
+      <c r="B343" s="186"/>
     </row>
     <row r="344" spans="2:2">
-      <c r="B344" s="216"/>
+      <c r="B344" s="186"/>
     </row>
     <row r="345" spans="2:2">
-      <c r="B345" s="216"/>
+      <c r="B345" s="186"/>
     </row>
     <row r="346" spans="2:2">
-      <c r="B346" s="216"/>
+      <c r="B346" s="186"/>
     </row>
     <row r="347" spans="2:2">
-      <c r="B347" s="216"/>
+      <c r="B347" s="186"/>
     </row>
     <row r="348" spans="2:2">
-      <c r="B348" s="216"/>
+      <c r="B348" s="186"/>
     </row>
     <row r="349" spans="2:2">
-      <c r="B349" s="216"/>
+      <c r="B349" s="186"/>
     </row>
     <row r="350" spans="2:2">
-      <c r="B350" s="216"/>
+      <c r="B350" s="186"/>
     </row>
     <row r="351" spans="2:2">
-      <c r="B351" s="216"/>
+      <c r="B351" s="186"/>
     </row>
     <row r="352" spans="2:2">
-      <c r="B352" s="216"/>
+      <c r="B352" s="186"/>
     </row>
     <row r="353" spans="2:2">
-      <c r="B353" s="216"/>
+      <c r="B353" s="186"/>
     </row>
     <row r="354" spans="2:2">
-      <c r="B354" s="216"/>
+      <c r="B354" s="186"/>
     </row>
     <row r="355" spans="2:2">
-      <c r="B355" s="216"/>
+      <c r="B355" s="186"/>
     </row>
     <row r="356" spans="2:2">
-      <c r="B356" s="216"/>
+      <c r="B356" s="186"/>
     </row>
     <row r="357" spans="2:2">
-      <c r="B357" s="216"/>
+      <c r="B357" s="186"/>
     </row>
     <row r="358" spans="2:2">
-      <c r="B358" s="216"/>
+      <c r="B358" s="186"/>
     </row>
     <row r="359" spans="2:2">
-      <c r="B359" s="216"/>
+      <c r="B359" s="186"/>
     </row>
     <row r="360" spans="2:2">
-      <c r="B360" s="216"/>
+      <c r="B360" s="186"/>
     </row>
     <row r="361" spans="2:2">
-      <c r="B361" s="216"/>
+      <c r="B361" s="186"/>
     </row>
     <row r="362" spans="2:2">
-      <c r="B362" s="216"/>
+      <c r="B362" s="186"/>
     </row>
     <row r="363" spans="2:2">
-      <c r="B363" s="216"/>
+      <c r="B363" s="186"/>
     </row>
     <row r="364" spans="2:2">
-      <c r="B364" s="216"/>
+      <c r="B364" s="186"/>
     </row>
     <row r="365" spans="2:2">
-      <c r="B365" s="216"/>
+      <c r="B365" s="186"/>
     </row>
     <row r="366" spans="2:2">
-      <c r="B366" s="216"/>
+      <c r="B366" s="186"/>
     </row>
     <row r="367" spans="2:2">
-      <c r="B367" s="216"/>
+      <c r="B367" s="186"/>
     </row>
     <row r="368" spans="2:2">
-      <c r="B368" s="216"/>
+      <c r="B368" s="186"/>
     </row>
     <row r="369" spans="2:2">
-      <c r="B369" s="216"/>
+      <c r="B369" s="186"/>
     </row>
     <row r="370" spans="2:2">
-      <c r="B370" s="216"/>
+      <c r="B370" s="186"/>
     </row>
     <row r="371" spans="2:2">
-      <c r="B371" s="216"/>
+      <c r="B371" s="186"/>
     </row>
     <row r="372" spans="2:2">
-      <c r="B372" s="216"/>
+      <c r="B372" s="186"/>
     </row>
     <row r="373" spans="2:2">
-      <c r="B373" s="216"/>
+      <c r="B373" s="186"/>
     </row>
     <row r="374" spans="2:2">
-      <c r="B374" s="216"/>
+      <c r="B374" s="186"/>
     </row>
     <row r="375" spans="2:2">
-      <c r="B375" s="216"/>
+      <c r="B375" s="186"/>
     </row>
     <row r="376" spans="2:2">
-      <c r="B376" s="216"/>
+      <c r="B376" s="186"/>
     </row>
     <row r="377" spans="2:2">
-      <c r="B377" s="216"/>
+      <c r="B377" s="186"/>
     </row>
     <row r="378" spans="2:2">
-      <c r="B378" s="216"/>
+      <c r="B378" s="186"/>
     </row>
     <row r="379" spans="2:2">
-      <c r="B379" s="216"/>
+      <c r="B379" s="186"/>
     </row>
     <row r="380" spans="2:2">
-      <c r="B380" s="216"/>
+      <c r="B380" s="186"/>
     </row>
     <row r="381" spans="2:2">
-      <c r="B381" s="216"/>
+      <c r="B381" s="186"/>
     </row>
     <row r="382" spans="2:2">
-      <c r="B382" s="216"/>
+      <c r="B382" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="A35:A50"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="A83:A98"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="A111:A126"/>
+    <mergeCell ref="A99:A110"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B203:B206"/>
+    <mergeCell ref="B207:B210"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="B215:B218"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="B379:B382"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B339:B342"/>
+    <mergeCell ref="B343:B346"/>
+    <mergeCell ref="B347:B350"/>
+    <mergeCell ref="B351:B354"/>
+    <mergeCell ref="B355:B358"/>
+    <mergeCell ref="B359:B362"/>
+    <mergeCell ref="B315:B318"/>
+    <mergeCell ref="B319:B322"/>
+    <mergeCell ref="B323:B326"/>
+    <mergeCell ref="B327:B330"/>
+    <mergeCell ref="B331:B334"/>
+    <mergeCell ref="B335:B338"/>
+    <mergeCell ref="B291:B294"/>
+    <mergeCell ref="B295:B298"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="B303:B306"/>
+    <mergeCell ref="B307:B310"/>
+    <mergeCell ref="B311:B314"/>
+    <mergeCell ref="B267:B270"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B278"/>
     <mergeCell ref="A127:A154"/>
     <mergeCell ref="A155:A166"/>
     <mergeCell ref="C1:D1"/>
@@ -20684,89 +20714,18 @@
     <mergeCell ref="B235:B238"/>
     <mergeCell ref="B239:B242"/>
     <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B379:B382"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B339:B342"/>
-    <mergeCell ref="B343:B346"/>
-    <mergeCell ref="B347:B350"/>
-    <mergeCell ref="B351:B354"/>
-    <mergeCell ref="B355:B358"/>
-    <mergeCell ref="B359:B362"/>
-    <mergeCell ref="B315:B318"/>
-    <mergeCell ref="B319:B322"/>
-    <mergeCell ref="B323:B326"/>
-    <mergeCell ref="B327:B330"/>
-    <mergeCell ref="B331:B334"/>
-    <mergeCell ref="B335:B338"/>
-    <mergeCell ref="B291:B294"/>
-    <mergeCell ref="B295:B298"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="B307:B310"/>
-    <mergeCell ref="B311:B314"/>
-    <mergeCell ref="B267:B270"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B278"/>
-    <mergeCell ref="B199:B202"/>
-    <mergeCell ref="B203:B206"/>
-    <mergeCell ref="B207:B210"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="B215:B218"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B183:B186"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B191:B194"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="A67:A82"/>
-    <mergeCell ref="A83:A98"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="A111:A126"/>
-    <mergeCell ref="A99:A110"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="A35:A50"/>
-    <mergeCell ref="A51:A66"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
